--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/metrique_running.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/metrique_running.xlsx
@@ -997,334 +997,334 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.03030303030303</v>
+        <v>33.31662786083292</v>
       </c>
       <c r="C2" t="n">
-        <v>19.66666666666667</v>
+        <v>18.71227837063206</v>
       </c>
       <c r="D2" t="n">
-        <v>1.136060606060606</v>
+        <v>1.080756638782144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3207538680717995</v>
       </c>
       <c r="F2" t="n">
-        <v>14.6969696969697</v>
+        <v>13.98272840005297</v>
       </c>
       <c r="G2" t="n">
-        <v>7.636363636363637</v>
+        <v>7.271202523701911</v>
       </c>
       <c r="H2" t="n">
-        <v>1.757575757575758</v>
+        <v>1.673141479264647</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4384848484848485</v>
+        <v>0.4176591627752634</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2112121212121212</v>
+        <v>0.2011843864845102</v>
       </c>
       <c r="K2" t="n">
-        <v>7.303030303030303</v>
+        <v>6.951858984870129</v>
       </c>
       <c r="L2" t="n">
-        <v>3.606060606060606</v>
+        <v>3.43477849444528</v>
       </c>
       <c r="M2" t="n">
-        <v>66.27272727272727</v>
+        <v>63.10520573260006</v>
       </c>
       <c r="N2" t="n">
-        <v>13.21212121212121</v>
+        <v>12.56573160522229</v>
       </c>
       <c r="O2" t="n">
-        <v>0.916969696969697</v>
+        <v>0.8718094657833482</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2616559131388164</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.42424242424243</v>
+        <v>23.25168782893634</v>
       </c>
       <c r="R2" t="n">
-        <v>19.6969696969697</v>
+        <v>18.73897628330957</v>
       </c>
       <c r="S2" t="n">
-        <v>2.181818181818182</v>
+        <v>2.069931229101053</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2796969696969697</v>
+        <v>0.2662192208185992</v>
       </c>
       <c r="U2" t="n">
-        <v>0.213030303030303</v>
+        <v>0.2025620978389705</v>
       </c>
       <c r="V2" t="n">
-        <v>3.393939393939394</v>
+        <v>3.235790433153455</v>
       </c>
       <c r="W2" t="n">
-        <v>2.424242424242424</v>
+        <v>2.310387855288119</v>
       </c>
       <c r="X2" t="n">
-        <v>45.42424242424242</v>
+        <v>43.28516924842263</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.878787878787879</v>
+        <v>8.415627832033378</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5763636363636363</v>
+        <v>0.5473915066572964</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1157864104436985</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.42424242424242</v>
+        <v>13.73824367895219</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.42424242424242</v>
+        <v>11.84196381921667</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.212121212121212</v>
+        <v>1.153552787461675</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1315151515151515</v>
+        <v>0.1251823214023265</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1018181818181818</v>
+        <v>0.09706504856972298</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.606060606060606</v>
+        <v>1.529463253700442</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.03030303030303</v>
+        <v>0.9851601397412828</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.66666666666667</v>
+        <v>15.870006813784</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05303030303030303</v>
+        <v>0.05038006806813067</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02929401425642027</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.393939393939394</v>
+        <v>7.038932327359079</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.484848484848484</v>
+        <v>6.182941922096707</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2291147330384647</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02090909090909091</v>
+        <v>0.0197479021934413</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01606060606060606</v>
+        <v>0.01516290213609692</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.84848484848485</v>
+        <v>26.59098205461576</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1745889992733458</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.09242424242424242</v>
+        <v>0.0880182198245304</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05793299324250028</v>
       </c>
       <c r="AX2" t="n">
-        <v>12.09090909090909</v>
+        <v>11.55701221528646</v>
       </c>
       <c r="AY2" t="n">
-        <v>11.57575757575758</v>
+        <v>11.06479055512977</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3506337760659241</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.03363636363636364</v>
+        <v>0.03218820394228892</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.03181818181818182</v>
+        <v>0.03045094232359548</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05897982392372537</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05897982392372537</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.515151515151516</v>
+        <v>6.191477058693476</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.878787878787879</v>
+        <v>1.778722009744981</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1233333333333333</v>
+        <v>0.11714168083972</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05827518132801825</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.696969696969697</v>
+        <v>2.55826375166775</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.848484848484848</v>
+        <v>1.758366208534017</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2313440821007775</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.0506018933306283</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03606060606060606</v>
+        <v>0.03433489954640993</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7166170545687389</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4318390513562386</v>
       </c>
       <c r="BP2" t="n">
-        <v>12.51515151515152</v>
+        <v>11.90001904107998</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.242424242424242</v>
+        <v>2.136478904605301</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.1793939393939394</v>
+        <v>0.1704648620861873</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1448647693040279</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.787878787878788</v>
+        <v>5.499449679588555</v>
       </c>
       <c r="BU2" t="n">
-        <v>4.515151515151516</v>
+        <v>4.284852473825639</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5183390316939588</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.07575757575757576</v>
+        <v>0.07212560964860289</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05763000471689012</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8974841654496961</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6920459614671085</v>
       </c>
       <c r="CA2" t="n">
-        <v>12.03030303030303</v>
+        <v>11.49762729217772</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363341</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.009393939393939394</v>
+        <v>0.008905801392784888</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>5.303030303030303</v>
+        <v>5.066348917668942</v>
       </c>
       <c r="CF2" t="n">
-        <v>5.181818181818182</v>
+        <v>4.9519744649748</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2003924183550014</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.003636363636363636</v>
+        <v>0.003410820438606415</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.003127025149608212</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363341</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363341</v>
       </c>
       <c r="CL2" t="n">
-        <v>8.878787878787879</v>
+        <v>8.435467926008876</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8363440174481851</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.08212121212121212</v>
+        <v>0.07799458838460209</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02929401425642027</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.151515151515151</v>
+        <v>2.037657936270041</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.787878787878788</v>
+        <v>1.693071601142612</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1738896540316879</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.01878787878787879</v>
+        <v>0.01770598291287714</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01363636363636364</v>
+        <v>0.01285418464464358</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2289095620300661</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08688511014048868</v>
       </c>
       <c r="CW2" t="n">
-        <v>28.3030303030303</v>
+        <v>26.84090223479501</v>
       </c>
       <c r="CX2" t="n">
-        <v>27.36363636363636</v>
+        <v>25.9428042777847</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.473636363636364</v>
+        <v>2.347067743290391</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3787641257991615</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.757575757575758</v>
+        <v>6.42363250348817</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.545454545454545</v>
+        <v>2.417713728789602</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.181818181818182</v>
+        <v>1.122149525675173</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.5878932000895366</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.1966666666666667</v>
+        <v>0.1875458654198053</v>
       </c>
       <c r="DF2" t="n">
-        <v>6.575757575757576</v>
+        <v>6.250833384029931</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.363636363636364</v>
+        <v>2.244914609331362</v>
       </c>
     </row>
     <row r="3">
@@ -1334,262 +1334,262 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.73684210526316</v>
+        <v>30.11432727360406</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5</v>
+        <v>15.1577773502404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9603295659973025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09977392064587304</v>
       </c>
       <c r="F3" t="n">
-        <v>11.60526315789474</v>
+        <v>11.40167231806685</v>
       </c>
       <c r="G3" t="n">
-        <v>5.710526315789473</v>
+        <v>5.610881335681609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.868421052631579</v>
+        <v>0.8537516803542399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3081578947368421</v>
+        <v>0.3022640946492576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1352631578947369</v>
+        <v>0.1318607074029875</v>
       </c>
       <c r="K3" t="n">
-        <v>4.973684210526316</v>
+        <v>4.857102389375071</v>
       </c>
       <c r="L3" t="n">
-        <v>2.184210526315789</v>
+        <v>2.126961115341663</v>
       </c>
       <c r="M3" t="n">
-        <v>42.02631578947368</v>
+        <v>41.02335224051085</v>
       </c>
       <c r="N3" t="n">
-        <v>11.71052631578947</v>
+        <v>11.50180051753889</v>
       </c>
       <c r="O3" t="n">
-        <v>0.695</v>
+        <v>0.6799993835650562</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07881910805350081</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.6578947368421</v>
+        <v>12.3236512875416</v>
       </c>
       <c r="R3" t="n">
-        <v>8.789473684210526</v>
+        <v>8.580370054820952</v>
       </c>
       <c r="S3" t="n">
-        <v>1.052631578947368</v>
+        <v>1.041434013058798</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1876315789473684</v>
+        <v>0.1830853685602326</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1244736842105263</v>
+        <v>0.1218552674065964</v>
       </c>
       <c r="V3" t="n">
-        <v>2.894736842105263</v>
+        <v>2.834415173416979</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.960198919587288</v>
       </c>
       <c r="X3" t="n">
-        <v>29.10526315789474</v>
+        <v>28.57230204874585</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.894736842105263</v>
+        <v>5.776266641393169</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3673684210526316</v>
+        <v>0.3602652161799531</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02526208004598821</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.578947368421053</v>
+        <v>8.399293333668279</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.842105263157895</v>
+        <v>6.689407585076999</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7853253286861722</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0886842105263158</v>
+        <v>0.08650160797243189</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06157894736842105</v>
+        <v>0.06010963251310321</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.394736842105263</v>
+        <v>1.340701511407943</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9125794266940361</v>
       </c>
       <c r="AI3" t="n">
-        <v>17.60526315789474</v>
+        <v>17.19006695567527</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07827950805273909</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.05447368421052631</v>
+        <v>0.0531471239181347</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04848560510654568</v>
       </c>
       <c r="AM3" t="n">
-        <v>7.236842105263158</v>
+        <v>7.057275858165352</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.421052631578948</v>
+        <v>6.243356131114319</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2897681764692051</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.02131578947368421</v>
+        <v>0.02073250964954751</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01657894736842105</v>
+        <v>0.01608877528157128</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02650871400337544</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02650871400337544</v>
       </c>
       <c r="AT3" t="n">
-        <v>18.94736842105263</v>
+        <v>18.63384162798026</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2340801293345636</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.05736842105263158</v>
+        <v>0.05619119365214294</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02484418554962792</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.842105263157895</v>
+        <v>5.750990902834222</v>
       </c>
       <c r="AY3" t="n">
-        <v>5.184210526315789</v>
+        <v>5.098028980784872</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05011758759666116</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01605263157894737</v>
+        <v>0.01596720575407844</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01131578947368421</v>
+        <v>0.01104696752401657</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1083464521284394</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05013431958733832</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.552631578947369</v>
+        <v>2.505200784539312</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.7063144764421444</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.04815789473684211</v>
+        <v>0.04761440824780126</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.210526315789474</v>
+        <v>1.193543900487918</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.80262554386426</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1279447018048879</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.02578947368421053</v>
+        <v>0.02554824779880455</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.01763157894736842</v>
+        <v>0.01713850538796331</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3093594861819149</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2262379547895976</v>
       </c>
       <c r="BP3" t="n">
-        <v>7.763157894736842</v>
+        <v>7.549982552649031</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1</v>
+        <v>0.9747460547906094</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.09229422498071589</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0735075356082714</v>
       </c>
       <c r="BT3" t="n">
-        <v>3.552631578947369</v>
+        <v>3.457553386186152</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.473684210526316</v>
+        <v>2.411356652814333</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4492606222061118</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.04421052631578947</v>
+        <v>0.04317832062407325</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.03132184182285013</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4691513112831923</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3853418227103356</v>
       </c>
       <c r="CA3" t="n">
-        <v>12</v>
+        <v>11.82019343110951</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02550281636102013</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.008542369666718378</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>4.605263157894737</v>
+        <v>4.508915172595128</v>
       </c>
       <c r="CF3" t="n">
-        <v>4.473684210526316</v>
+        <v>4.383823952391094</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.003157894736842106</v>
+        <v>0.003059225597586269</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.002105263157894737</v>
+        <v>0.002055881103945185</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1598,70 +1598,70 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>8.921052631578947</v>
+        <v>8.777566642516542</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6167234713693351</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.07763157894736843</v>
+        <v>0.0771932031699705</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0252901340377104</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.921052631578947</v>
+        <v>1.878444831212845</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.526315789473684</v>
+        <v>1.499649542906151</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1268711052221529</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.01552631578947368</v>
+        <v>0.01513995018966668</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.009210526315789475</v>
+        <v>0.009045068427678609</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.106224611396137</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05575110040188808</v>
       </c>
       <c r="CW3" t="n">
-        <v>17</v>
+        <v>16.69229724536578</v>
       </c>
       <c r="CX3" t="n">
-        <v>16.52631578947368</v>
+        <v>16.20002651862291</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.304736842105263</v>
+        <v>1.276405389083262</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2267699799312891</v>
       </c>
       <c r="DA3" t="n">
-        <v>4.973684210526316</v>
+        <v>4.901208832026215</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.605263157894737</v>
+        <v>1.554292041877863</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7819798758669926</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.3636842105263158</v>
+        <v>0.3589450251504642</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1147368421052632</v>
+        <v>0.1121050121947905</v>
       </c>
       <c r="DF3" t="n">
-        <v>4.868421052631579</v>
+        <v>4.788225500715779</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.552631578947368</v>
+        <v>1.503756559784842</v>
       </c>
     </row>
     <row r="4">
@@ -1671,130 +1671,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.5</v>
+        <v>30.18599489901354</v>
       </c>
       <c r="C4" t="n">
-        <v>17.60526315789474</v>
+        <v>16.86890018106471</v>
       </c>
       <c r="D4" t="n">
-        <v>1.011052631578947</v>
+        <v>0.970428544372404</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1751083402519827</v>
       </c>
       <c r="F4" t="n">
-        <v>11.89473684210526</v>
+        <v>11.39821938167858</v>
       </c>
       <c r="G4" t="n">
-        <v>6.157894736842105</v>
+        <v>5.916393253588792</v>
       </c>
       <c r="H4" t="n">
-        <v>1.263157894736842</v>
+        <v>1.216450529075462</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3255263157894737</v>
+        <v>0.3141938378951</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1805263157894737</v>
+        <v>0.1757519181134694</v>
       </c>
       <c r="K4" t="n">
-        <v>6.078947368421052</v>
+        <v>5.835171532287517</v>
       </c>
       <c r="L4" t="n">
-        <v>3.236842105263158</v>
+        <v>3.122410812258618</v>
       </c>
       <c r="M4" t="n">
-        <v>58.86842105263158</v>
+        <v>56.65127234546636</v>
       </c>
       <c r="N4" t="n">
-        <v>12.94736842105263</v>
+        <v>12.38801942570679</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8536842105263157</v>
+        <v>0.8195260958129839</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2012168308852395</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.92105263157895</v>
+        <v>19.18900983572264</v>
       </c>
       <c r="R4" t="n">
-        <v>15.55263157894737</v>
+        <v>14.96974917447425</v>
       </c>
       <c r="S4" t="n">
-        <v>1.578947368421053</v>
+        <v>1.507181961628457</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2428947368421053</v>
+        <v>0.2334022790540144</v>
       </c>
       <c r="U4" t="n">
-        <v>0.178421052631579</v>
+        <v>0.1711820828124195</v>
       </c>
       <c r="V4" t="n">
-        <v>3.026315789473684</v>
+        <v>2.890352910251917</v>
       </c>
       <c r="W4" t="n">
-        <v>2.157894736842105</v>
+        <v>2.063303778638739</v>
       </c>
       <c r="X4" t="n">
-        <v>37.5</v>
+        <v>36.24327279380292</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.578947368421052</v>
+        <v>7.333280605702286</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5005263157894737</v>
+        <v>0.4834321123825335</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.252361210306705</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.63157894736842</v>
+        <v>13.16021051236234</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.97368421052632</v>
+        <v>11.55311646776431</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.868421052631579</v>
+        <v>1.792306653793551</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1573684210526316</v>
+        <v>0.1512573711438195</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1339473684210526</v>
+        <v>0.1285114898374431</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.973684210526316</v>
+        <v>1.913119750584385</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.578947368421053</v>
+        <v>1.516448556088234</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.23684210526316</v>
+        <v>15.6173709950901</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09873827165058077</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05973684210526316</v>
+        <v>0.05749278906834946</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.578947368421052</v>
+        <v>6.345159741545655</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.894736842105263</v>
+        <v>5.678993634758915</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1795021619615148</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01815789473684211</v>
+        <v>0.01771224203521241</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.01488239963657846</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1803,130 +1803,130 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>23.19133744866364</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2261592071792865</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.08263157894736843</v>
+        <v>0.07960057637337616</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02570961391015804</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.868421052631579</v>
+        <v>8.554373976378688</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.263157894736842</v>
+        <v>7.980385771647159</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3006091700930004</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.03078947368421052</v>
+        <v>0.02952457342592951</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.02578947368421053</v>
+        <v>0.02479600347616482</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1248312226959437</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1002019884516754</v>
       </c>
       <c r="BE4" t="n">
-        <v>6.947368421052632</v>
+        <v>6.745670755340224</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.657894736842105</v>
+        <v>2.586013155928526</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1563157894736842</v>
+        <v>0.1527341266836293</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.789473684210526</v>
+        <v>2.707695353318999</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.894736842105263</v>
+        <v>1.830581113649898</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3782870350047623</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.05789473684210527</v>
+        <v>0.05710455512890823</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.03631578947368421</v>
+        <v>0.03514571714252352</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.052631578947368</v>
+        <v>1.026580305392398</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5778237928695761</v>
       </c>
       <c r="BP4" t="n">
-        <v>15.18421052631579</v>
+        <v>14.50199999652581</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.342105263157895</v>
+        <v>2.242186888640548</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.2136842105263158</v>
+        <v>0.2047979762834873</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1267392113479662</v>
       </c>
       <c r="BT4" t="n">
-        <v>7.052631578947368</v>
+        <v>6.760654984314604</v>
       </c>
       <c r="BU4" t="n">
-        <v>5.763157894736842</v>
+        <v>5.529098958999732</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7507947158712036</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.08973684210526316</v>
+        <v>0.08629308887260034</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.07263157894736842</v>
+        <v>0.07007091725713234</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.868421052631579</v>
+        <v>0.8301034168548562</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5799807899186907</v>
       </c>
       <c r="CA4" t="n">
-        <v>13.57894736842105</v>
+        <v>13.11028899025828</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04981442195347121</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.01368421052631579</v>
+        <v>0.01328065611773485</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>6.184210526315789</v>
+        <v>5.95157946747665</v>
       </c>
       <c r="CF4" t="n">
-        <v>6</v>
+        <v>5.777107318450115</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1002934502693241</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.00403487687129256</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.00403487687129256</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -1935,70 +1935,70 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>10.92105263157895</v>
+        <v>10.49475608053197</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6804912163125</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.095</v>
+        <v>0.09110685200583868</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.052631578947369</v>
+        <v>2.915483617637937</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.552631578947369</v>
+        <v>2.435849717221926</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1489979179988047</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.02552631578947369</v>
+        <v>0.02446663154506534</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.02</v>
+        <v>0.01922253739522824</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1012850684270754</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05117734290121847</v>
       </c>
       <c r="CW4" t="n">
-        <v>18.34210526315789</v>
+        <v>17.55879846409204</v>
       </c>
       <c r="CX4" t="n">
-        <v>17.23684210526316</v>
+        <v>16.50427797461224</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.243684210526316</v>
+        <v>1.19059826575767</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2748102397371335</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.842105263157895</v>
+        <v>4.604933289974453</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.026315789473684</v>
+        <v>1.922009768718305</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.078947368421053</v>
+        <v>1.0250065893834</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.303421052631579</v>
+        <v>0.2885896138476974</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.1239473684210526</v>
+        <v>0.1179939584004233</v>
       </c>
       <c r="DF4" t="n">
-        <v>4.5</v>
+        <v>4.280153486758913</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.815789473684211</v>
+        <v>1.722317179463005</v>
       </c>
     </row>
     <row r="5">
@@ -2008,334 +2008,334 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.27777777777778</v>
+        <v>26.34650423369379</v>
       </c>
       <c r="C5" t="n">
-        <v>14.36111111111111</v>
+        <v>13.88393959510545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8591666666666666</v>
+        <v>0.833069017176724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1842165971767381</v>
       </c>
       <c r="F5" t="n">
-        <v>11.69444444444444</v>
+        <v>11.28200055108467</v>
       </c>
       <c r="G5" t="n">
-        <v>5.277777777777778</v>
+        <v>5.09838942732597</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9649275568321229</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3308333333333333</v>
+        <v>0.3194351400351964</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.137113228164487</v>
       </c>
       <c r="K5" t="n">
-        <v>5.527777777777778</v>
+        <v>5.357104617545381</v>
       </c>
       <c r="L5" t="n">
-        <v>2.361111111111111</v>
+        <v>2.293426941275121</v>
       </c>
       <c r="M5" t="n">
-        <v>54.44444444444444</v>
+        <v>52.46108029121793</v>
       </c>
       <c r="N5" t="n">
-        <v>12.63888888888889</v>
+        <v>12.13847690741908</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8236111111111112</v>
+        <v>0.793957870675925</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1840272228808846</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.63888888888889</v>
+        <v>18.928004004232</v>
       </c>
       <c r="R5" t="n">
-        <v>14.5</v>
+        <v>13.96759630852906</v>
       </c>
       <c r="S5" t="n">
-        <v>1.444444444444444</v>
+        <v>1.38980423703845</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2672222222222222</v>
+        <v>0.2580618541527153</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1902777777777778</v>
+        <v>0.1836472294197517</v>
       </c>
       <c r="V5" t="n">
-        <v>3.75</v>
+        <v>3.594959271734556</v>
       </c>
       <c r="W5" t="n">
-        <v>2.527777777777778</v>
+        <v>2.415798534306908</v>
       </c>
       <c r="X5" t="n">
-        <v>34.16666666666666</v>
+        <v>33.08439538688868</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.75</v>
+        <v>6.560453964074025</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4711111111111111</v>
+        <v>0.4568120916005113</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.109106266203923</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.08333333333333</v>
+        <v>10.75579208590445</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.305555555555555</v>
+        <v>9.032252425804433</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.055555555555556</v>
+        <v>1.042165876050869</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1183333333333333</v>
+        <v>0.11399179080433</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.09138888888888889</v>
+        <v>0.08799635777701789</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.583333333333333</v>
+        <v>1.531653644376133</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.166666666666667</v>
+        <v>1.129170515769858</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>14.49101287120651</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05297268182928033</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.04333333333333333</v>
+        <v>0.04153617552410513</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.083333333333333</v>
+        <v>6.832141863192952</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.416666666666667</v>
+        <v>6.199487610383709</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1864452193312522</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02</v>
+        <v>0.01899254049555539</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.01633824124226394</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02672596266917534</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02672596266917534</v>
       </c>
       <c r="AT5" t="n">
-        <v>21.52777777777778</v>
+        <v>20.87723985435995</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1321421312954815</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.07222222222222223</v>
+        <v>0.06968215799944422</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.638888888888889</v>
+        <v>7.421127877200495</v>
       </c>
       <c r="AY5" t="n">
-        <v>6.972222222222222</v>
+        <v>6.783518452229456</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.280937975029651</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02</v>
+        <v>0.01943564182453069</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01638888888888889</v>
+        <v>0.01602378224025737</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02680045453570892</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02680045453570892</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.555555555555555</v>
+        <v>3.411322074282632</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.361111111111111</v>
+        <v>1.29877490341554</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.07611111111111112</v>
+        <v>0.07299689731502705</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.583333333333333</v>
+        <v>1.522225117269062</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8317845108672739</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.132554972956427</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.03416666666666666</v>
+        <v>0.03296188098010853</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01555555555555556</v>
+        <v>0.01503779313033606</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6106843693502575</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2099827692682384</v>
       </c>
       <c r="BP5" t="n">
-        <v>9.777777777777779</v>
+        <v>9.456415398120617</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.5</v>
+        <v>2.416969219957247</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.1522222222222222</v>
+        <v>0.1476114030985148</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05598061488711422</v>
       </c>
       <c r="BT5" t="n">
-        <v>4.444444444444445</v>
+        <v>4.267790652886838</v>
       </c>
       <c r="BU5" t="n">
-        <v>3.388888888888889</v>
+        <v>3.243467845886546</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4242862332515241</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.06555555555555555</v>
+        <v>0.06329360097365339</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.05055555555555555</v>
+        <v>0.04835093702444973</v>
       </c>
       <c r="BY5" t="n">
-        <v>1</v>
+        <v>0.9632437208758406</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6861656053616277</v>
       </c>
       <c r="CA5" t="n">
-        <v>11.13888888888889</v>
+        <v>10.99738283459159</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05226019109148497</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.008055555555555555</v>
+        <v>0.007892370976956886</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>4.472222222222222</v>
+        <v>4.486817038440566</v>
       </c>
       <c r="CF5" t="n">
-        <v>4.305555555555555</v>
+        <v>4.31490718325677</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02765180842827121</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.002267537157401568</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001670977627195294</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02622937060002308</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02622937060002308</v>
       </c>
       <c r="CL5" t="n">
-        <v>9.138888888888889</v>
+        <v>8.82794874710193</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4589218446990397</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.07138888888888889</v>
+        <v>0.06873201645518255</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02598752598752599</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.388888888888889</v>
+        <v>2.309541872378013</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.861111111111111</v>
+        <v>1.808088191782887</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.156803029301252</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.01444444444444445</v>
+        <v>0.01382213524992148</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.009722222222222222</v>
+        <v>0.009345355272479261</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05247105885571478</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02628756493028538</v>
       </c>
       <c r="CW5" t="n">
-        <v>20.22222222222222</v>
+        <v>19.51116618835727</v>
       </c>
       <c r="CX5" t="n">
-        <v>19.47222222222222</v>
+        <v>18.80157859925063</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.659722222222222</v>
+        <v>1.612062086058711</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1346528290757615</v>
       </c>
       <c r="DA5" t="n">
-        <v>5.555555555555555</v>
+        <v>5.329218826712939</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.25</v>
+        <v>2.168900569246393</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9425520918402179</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.4805555555555556</v>
+        <v>0.4620743057092777</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.1797222222222222</v>
+        <v>0.1738171097212575</v>
       </c>
       <c r="DF5" t="n">
-        <v>5.305555555555555</v>
+        <v>5.094236346597027</v>
       </c>
       <c r="DG5" t="n">
-        <v>2.138888888888889</v>
+        <v>2.064605981524532</v>
       </c>
     </row>
     <row r="6">
@@ -2345,130 +2345,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.58333333333334</v>
+        <v>31.88328488860182</v>
       </c>
       <c r="C6" t="n">
-        <v>18.97222222222222</v>
+        <v>18.00576566174164</v>
       </c>
       <c r="D6" t="n">
-        <v>1.051944444444444</v>
+        <v>0.9988692938365497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2878751853122176</v>
       </c>
       <c r="F6" t="n">
-        <v>13.27777777777778</v>
+        <v>12.63524663820264</v>
       </c>
       <c r="G6" t="n">
-        <v>6.416666666666667</v>
+        <v>6.069777504824497</v>
       </c>
       <c r="H6" t="n">
-        <v>1.388888888888889</v>
+        <v>1.312697104499695</v>
       </c>
       <c r="I6" t="n">
-        <v>0.38</v>
+        <v>0.3627501093972417</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1797222222222222</v>
+        <v>0.1699575641153719</v>
       </c>
       <c r="K6" t="n">
-        <v>6.666666666666667</v>
+        <v>6.356491759222813</v>
       </c>
       <c r="L6" t="n">
-        <v>3.055555555555555</v>
+        <v>2.888405845595106</v>
       </c>
       <c r="M6" t="n">
-        <v>53.55555555555556</v>
+        <v>51.31881509269745</v>
       </c>
       <c r="N6" t="n">
-        <v>11.11111111111111</v>
+        <v>10.75077940261755</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7294444444444445</v>
+        <v>0.7020346034700496</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.181406070596172</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.22222222222222</v>
+        <v>15.51277047731028</v>
       </c>
       <c r="R6" t="n">
-        <v>12.41666666666667</v>
+        <v>11.84512432624348</v>
       </c>
       <c r="S6" t="n">
-        <v>1.277777777777778</v>
+        <v>1.205521970059102</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1883333333333334</v>
+        <v>0.1804808295899445</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1319444444444444</v>
+        <v>0.1262142790416489</v>
       </c>
       <c r="V6" t="n">
-        <v>2.444444444444445</v>
+        <v>2.375636380599106</v>
       </c>
       <c r="W6" t="n">
-        <v>1.583333333333333</v>
+        <v>1.528313415207905</v>
       </c>
       <c r="X6" t="n">
-        <v>33.44444444444444</v>
+        <v>32.02555856267942</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.444444444444445</v>
+        <v>6.151000001741962</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4291666666666667</v>
+        <v>0.4109070837413195</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1319222011349792</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.61111111111111</v>
+        <v>10.166802150149</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.833333333333334</v>
+        <v>8.417406864896005</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.055555555555556</v>
+        <v>1.000861205513958</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1230555555555555</v>
+        <v>0.1176453521977707</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.08570129554991104</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.833333333333333</v>
+        <v>1.73014948235407</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.222222222222222</v>
+        <v>1.153582088920311</v>
       </c>
       <c r="AI6" t="n">
-        <v>17.02777777777778</v>
+        <v>16.31225724892396</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0258585022755482</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03722222222222223</v>
+        <v>0.03543104625070376</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.611111111111111</v>
+        <v>7.28826767881225</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.833333333333333</v>
+        <v>6.548355192717433</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3139493106178282</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01416666666666667</v>
+        <v>0.01372142925104794</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01194444444444445</v>
+        <v>0.0116049101979867</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2477,31 +2477,31 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>30.19444444444444</v>
+        <v>29.09362814533207</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05284408831775845</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.07194444444444444</v>
+        <v>0.06944894899297466</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.41666666666667</v>
+        <v>10.99893953947585</v>
       </c>
       <c r="AY6" t="n">
-        <v>10.80555555555556</v>
+        <v>10.42186947399903</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1594936057049158</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.02111111111111111</v>
+        <v>0.0199149724894333</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.01861111111111111</v>
+        <v>0.01752316195517033</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
@@ -2510,97 +2510,97 @@
         <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.638888888888889</v>
+        <v>3.491289579545633</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.305555555555556</v>
+        <v>1.236785199814785</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.06694444444444445</v>
+        <v>0.06387559273533158</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.166666666666667</v>
+        <v>1.105456542637457</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8676827060085306</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1328623108543616</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.02694444444444444</v>
+        <v>0.02553030271281544</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.02106163168176137</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6034105715662746</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.497981881160964</v>
       </c>
       <c r="BP6" t="n">
-        <v>13.22222222222222</v>
+        <v>12.56581266381622</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.666666666666667</v>
+        <v>1.575009878594958</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.1638888888888889</v>
+        <v>0.1556603274327272</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08167373896567713</v>
       </c>
       <c r="BT6" t="n">
-        <v>5.694444444444445</v>
+        <v>5.425788251745964</v>
       </c>
       <c r="BU6" t="n">
-        <v>4.583333333333333</v>
+        <v>4.3755362854577</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5790282866715538</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.06638888888888889</v>
+        <v>0.06309396301726032</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05138888888888889</v>
+        <v>0.04893440090844769</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5719818750498582</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4423994565997091</v>
       </c>
       <c r="CA6" t="n">
-        <v>17.08333333333333</v>
+        <v>16.7738808364213</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02607289982791886</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01027777777777778</v>
+        <v>0.01006764252893701</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02615609960242729</v>
       </c>
       <c r="CE6" t="n">
-        <v>7</v>
+        <v>6.915031576279023</v>
       </c>
       <c r="CF6" t="n">
-        <v>6.694444444444445</v>
+        <v>6.624464228384948</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08125313438019198</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.003333333333333333</v>
+        <v>0.003192971571374672</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.002929188928272588</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -2609,70 +2609,70 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>12.63888888888889</v>
+        <v>12.10368402178029</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4983755318930661</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.09277777777777778</v>
+        <v>0.08802162149001025</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.305555555555555</v>
+        <v>3.170769227204839</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.888888888888889</v>
+        <v>2.774320284722772</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1601096143237309</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.02055555555555556</v>
+        <v>0.01952132094803704</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0175</v>
+        <v>0.01661529319248397</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1340442271341148</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1340442271341148</v>
       </c>
       <c r="CW6" t="n">
-        <v>25</v>
+        <v>23.88110843518637</v>
       </c>
       <c r="CX6" t="n">
-        <v>23.91666666666667</v>
+        <v>22.85434805547976</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.843333333333333</v>
+        <v>1.756841470446536</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.183237311732826</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.416666666666667</v>
+        <v>6.074605132576649</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.75</v>
+        <v>2.609407436007097</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.138888888888889</v>
+        <v>1.080133229187993</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.4788888888888889</v>
+        <v>0.4520997326424793</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.1955555555555556</v>
+        <v>0.1851232026017376</v>
       </c>
       <c r="DF6" t="n">
-        <v>6.166666666666667</v>
+        <v>5.837195311724859</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.583333333333333</v>
+        <v>2.452454518768994</v>
       </c>
     </row>
     <row r="7">
@@ -2682,334 +2682,334 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.44736842105263</v>
+        <v>30.74600160963821</v>
       </c>
       <c r="C7" t="n">
-        <v>16.97368421052632</v>
+        <v>16.09391987162722</v>
       </c>
       <c r="D7" t="n">
-        <v>1.003947368421053</v>
+        <v>0.9539747842928362</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1729193091218944</v>
       </c>
       <c r="F7" t="n">
-        <v>12.60526315789474</v>
+        <v>11.95390460532709</v>
       </c>
       <c r="G7" t="n">
-        <v>6.236842105263158</v>
+        <v>5.887196867822726</v>
       </c>
       <c r="H7" t="n">
-        <v>1.421052631578947</v>
+        <v>1.334563130286645</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3292105263157895</v>
+        <v>0.3129109871735515</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1676315789473684</v>
+        <v>0.1579253459909931</v>
       </c>
       <c r="K7" t="n">
-        <v>6.157894736842105</v>
+        <v>5.855099168991128</v>
       </c>
       <c r="L7" t="n">
-        <v>3.157894736842105</v>
+        <v>2.9797809009869</v>
       </c>
       <c r="M7" t="n">
-        <v>59.23684210526316</v>
+        <v>56.30525193958628</v>
       </c>
       <c r="N7" t="n">
-        <v>10.36842105263158</v>
+        <v>9.908257487362775</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7557894736842105</v>
+        <v>0.7182469492459953</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1514600188677757</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.97368421052632</v>
+        <v>19.91130394002143</v>
       </c>
       <c r="R7" t="n">
-        <v>15.97368421052632</v>
+        <v>15.1287150595785</v>
       </c>
       <c r="S7" t="n">
-        <v>1.842105263157895</v>
+        <v>1.739855691656404</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2410526315789474</v>
+        <v>0.228487791565791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1794736842105263</v>
+        <v>0.1695825845158687</v>
       </c>
       <c r="V7" t="n">
-        <v>2.921052631578947</v>
+        <v>2.792035457622614</v>
       </c>
       <c r="W7" t="n">
-        <v>2.078947368421053</v>
+        <v>1.969220768740821</v>
       </c>
       <c r="X7" t="n">
-        <v>39.44736842105263</v>
+        <v>37.37018790856444</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.210526315789474</v>
+        <v>7.779306976232013</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5281578947368422</v>
+        <v>0.4996906196092655</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1238558092157647</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.10526315789474</v>
+        <v>11.50051939899502</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.26315789473684</v>
+        <v>9.771466441987558</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.526315789473684</v>
+        <v>1.448928168964767</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1407894736842105</v>
+        <v>0.1335385915731321</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1071052631578947</v>
+        <v>0.1019188677123628</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.078947368421053</v>
+        <v>1.960882512075069</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.473684210526316</v>
+        <v>1.391535927984515</v>
       </c>
       <c r="AI7" t="n">
-        <v>17.47368421052632</v>
+        <v>16.58498266887803</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07524609615970179</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.04789473684210527</v>
+        <v>0.04510120570941163</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.894736842105263</v>
+        <v>7.515093069057348</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.026315789473684</v>
+        <v>6.691547437760176</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2226436304235673</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02026315789473684</v>
+        <v>0.01906582162185163</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01710526315789474</v>
+        <v>0.01608073684256258</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04925718938017782</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04925718938017782</v>
       </c>
       <c r="AT7" t="n">
-        <v>22.89473684210526</v>
+        <v>21.77893805496408</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.246475791169036</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.06394736842105264</v>
+        <v>0.06072813990350247</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.315789473684211</v>
+        <v>7.908088104100122</v>
       </c>
       <c r="AY7" t="n">
-        <v>7.684210526315789</v>
+        <v>7.310234038412121</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09707475080967227</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.02131578947368421</v>
+        <v>0.02007299587699493</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01710526315789474</v>
+        <v>0.01602730302635627</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0488869029946528</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02427481681953508</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.5</v>
+        <v>5.202486340199691</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.5</v>
+        <v>1.417941536800541</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.09763157894736842</v>
+        <v>0.09225771531593834</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05270902957513697</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.421052631578947</v>
+        <v>2.298605044433457</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.868421052631579</v>
+        <v>1.770640771651173</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1998030777697107</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.04131578947368422</v>
+        <v>0.03898938350900392</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.03026315789473684</v>
+        <v>0.02855673545761915</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.5</v>
+        <v>0.4697560092774615</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3477535248471923</v>
       </c>
       <c r="BP7" t="n">
-        <v>11.1578947368421</v>
+        <v>10.53424182492583</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.868421052631579</v>
+        <v>1.767031482647835</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.1518421052631579</v>
+        <v>0.1431632148727472</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02344228613341891</v>
       </c>
       <c r="BT7" t="n">
-        <v>4.421052631578948</v>
+        <v>4.167449378869699</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.763157894736842</v>
+        <v>3.554026887468047</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5768570784541197</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.05868421052631579</v>
+        <v>0.05524551763527508</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.04947368421052632</v>
+        <v>0.04665191330932262</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6400682094229291</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5662395585903838</v>
       </c>
       <c r="CA7" t="n">
-        <v>16.39473684210526</v>
+        <v>15.76917630201898</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02463256424993842</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.01105263157894737</v>
+        <v>0.01055190151948413</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02344228613341891</v>
       </c>
       <c r="CE7" t="n">
-        <v>6.973684210526316</v>
+        <v>6.671467348738467</v>
       </c>
       <c r="CF7" t="n">
-        <v>6.789473684210527</v>
+        <v>6.495733564807252</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1612420982701315</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.003947368421052632</v>
+        <v>0.003695186138432149</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.003157894736842105</v>
+        <v>0.00296858472027114</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02463256424993842</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02463256424993842</v>
       </c>
       <c r="CL7" t="n">
-        <v>9.631578947368421</v>
+        <v>9.091971682858405</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5732389590977999</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.07973684210526316</v>
+        <v>0.07485463525732146</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07198130500332631</v>
       </c>
       <c r="CP7" t="n">
-        <v>3.105263157894737</v>
+        <v>2.916256093225261</v>
       </c>
       <c r="CQ7" t="n">
-        <v>2.736842105263158</v>
+        <v>2.574207940618567</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2209230704328839</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.02157894736842106</v>
+        <v>0.02018666310048496</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.01710526315789474</v>
+        <v>0.01601557224947783</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1496023391046152</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.125067505911494</v>
       </c>
       <c r="CW7" t="n">
-        <v>24.68421052631579</v>
+        <v>23.32349716798402</v>
       </c>
       <c r="CX7" t="n">
-        <v>24.13157894736842</v>
+        <v>22.80720368453181</v>
       </c>
       <c r="CY7" t="n">
-        <v>2.128421052631579</v>
+        <v>2.012037399123712</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3903931134024621</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.105263157894737</v>
+        <v>5.758010019224944</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.763157894736842</v>
+        <v>2.604840563508638</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.526315789473684</v>
+        <v>1.426589067061377</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.5489473684210526</v>
+        <v>0.5173000577896401</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.2323684210526316</v>
+        <v>0.2182254234572542</v>
       </c>
       <c r="DF7" t="n">
-        <v>5.973684210526316</v>
+        <v>5.637309480201918</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.684210526315789</v>
+        <v>2.532576527082218</v>
       </c>
     </row>
     <row r="8">
@@ -3019,130 +3019,130 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.97368421052632</v>
+        <v>26.51812349926202</v>
       </c>
       <c r="C8" t="n">
-        <v>15.52631578947368</v>
+        <v>14.71151834321949</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9252631578947369</v>
+        <v>0.8775773575441258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2277301155297149</v>
       </c>
       <c r="F8" t="n">
-        <v>11.73684210526316</v>
+        <v>11.14713251560215</v>
       </c>
       <c r="G8" t="n">
-        <v>5.710526315789473</v>
+        <v>5.408462955585221</v>
       </c>
       <c r="H8" t="n">
-        <v>1.289473684210526</v>
+        <v>1.247300800130592</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3260526315789474</v>
+        <v>0.3115134955740735</v>
       </c>
       <c r="J8" t="n">
-        <v>0.14</v>
+        <v>0.1340979794452382</v>
       </c>
       <c r="K8" t="n">
-        <v>5.763157894736842</v>
+        <v>5.511009357981824</v>
       </c>
       <c r="L8" t="n">
-        <v>2.605263157894737</v>
+        <v>2.481428847118717</v>
       </c>
       <c r="M8" t="n">
-        <v>50.5</v>
+        <v>47.72083982697577</v>
       </c>
       <c r="N8" t="n">
-        <v>11.23684210526316</v>
+        <v>10.68446742474361</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7228947368421053</v>
+        <v>0.6886255910916398</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2486030388636978</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.05263157894737</v>
+        <v>15.20918200325988</v>
       </c>
       <c r="R8" t="n">
-        <v>12.42105263157895</v>
+        <v>11.73456012428692</v>
       </c>
       <c r="S8" t="n">
-        <v>1.710526315789474</v>
+        <v>1.619510948925805</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1928947368421053</v>
+        <v>0.1831896239906857</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1405263157894737</v>
+        <v>0.1332737795274911</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>2.847607608926372</v>
       </c>
       <c r="W8" t="n">
-        <v>2.105263157894737</v>
+        <v>2.001319174713123</v>
       </c>
       <c r="X8" t="n">
-        <v>37.60526315789474</v>
+        <v>35.55605662287137</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.368421052631579</v>
+        <v>6.959107940389686</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4813157894736842</v>
+        <v>0.4554357414776604</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2223843233498421</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.31578947368421</v>
+        <v>10.7626521420159</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.315789473684211</v>
+        <v>8.849390501874124</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.184210526315789</v>
+        <v>1.135112964125187</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1342105263157895</v>
+        <v>0.1284106075131014</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.09105263157894737</v>
+        <v>0.08671330802999398</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.026315789473684</v>
+        <v>1.934951778438378</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.368421052631579</v>
+        <v>1.290990155839387</v>
       </c>
       <c r="AI8" t="n">
-        <v>13.8421052631579</v>
+        <v>13.02970198148706</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02495701846819367</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.03815789473684211</v>
+        <v>0.03590112460587362</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.526315789473684</v>
+        <v>6.123698576379342</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.763157894736842</v>
+        <v>5.40177528648388</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07460214261782588</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.01394736842105263</v>
+        <v>0.01312969001472276</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01131578947368421</v>
+        <v>0.01063723298614896</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3151,130 +3151,130 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>20.78947368421053</v>
+        <v>19.72721831919197</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1204492834924092</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.05789473684210527</v>
+        <v>0.05499545643901462</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.210526315789473</v>
+        <v>6.854411563890131</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.368421052631579</v>
+        <v>6.059553502111839</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07457735064537031</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.01815789473684211</v>
+        <v>0.01718199785329852</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.01443198818013327</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04742168734498008</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04742168734498008</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.026315789473684</v>
+        <v>3.81261480844712</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.473684210526316</v>
+        <v>1.386723412933941</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.08105263157894738</v>
+        <v>0.07678892151027775</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02594989594091728</v>
       </c>
       <c r="BI8" t="n">
-        <v>1.315789473684211</v>
+        <v>1.263142938103668</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6169967575738121</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1489735590611805</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.02710526315789474</v>
+        <v>0.02605999026002636</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01210526315789474</v>
+        <v>0.01186579241203359</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.5</v>
+        <v>0.4731116172424951</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.197471719018082</v>
       </c>
       <c r="BP8" t="n">
-        <v>10.73684210526316</v>
+        <v>10.0752017196604</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.868421052631579</v>
+        <v>1.761508264715621</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.155</v>
+        <v>0.1456023939119012</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04706996830980498</v>
       </c>
       <c r="BT8" t="n">
-        <v>4.552631578947368</v>
+        <v>4.264281807234933</v>
       </c>
       <c r="BU8" t="n">
-        <v>3.473684210526316</v>
+        <v>3.253167859590326</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3443486518519399</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0668421052631579</v>
+        <v>0.06236277647878544</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.05</v>
+        <v>0.04652516369452947</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7380812376620561</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5396007389406691</v>
       </c>
       <c r="CA8" t="n">
-        <v>8.657894736842104</v>
+        <v>8.190042598794602</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02477427879321735</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.009911092708320607</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>3.947368421052631</v>
+        <v>3.736579849668347</v>
       </c>
       <c r="CF8" t="n">
-        <v>3.736842105263158</v>
+        <v>3.539570936350472</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1209877217850276</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.002631578947368421</v>
+        <v>0.002461587350204053</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002631578947368421</v>
+        <v>0.002461587350204053</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
@@ -3283,70 +3283,70 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>10.36842105263158</v>
+        <v>9.777468562984797</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4217270207049033</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.07921052631578948</v>
+        <v>0.07473897285587836</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>2.631578947368421</v>
+        <v>2.471279212037115</v>
       </c>
       <c r="CQ8" t="n">
-        <v>2.105263157894737</v>
+        <v>1.973205018095387</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04867356998989986</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.02210526315789474</v>
+        <v>0.0207466226824081</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.01426027317778751</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.172445469537055</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1222934603166244</v>
       </c>
       <c r="CW8" t="n">
-        <v>20.63157894736842</v>
+        <v>19.50263478795393</v>
       </c>
       <c r="CX8" t="n">
-        <v>19.92105263157895</v>
+        <v>18.83053863659732</v>
       </c>
       <c r="CY8" t="n">
-        <v>1.679736842105263</v>
+        <v>1.598846022823799</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2451462716593805</v>
       </c>
       <c r="DA8" t="n">
-        <v>5.894736842105263</v>
+        <v>5.585811933416733</v>
       </c>
       <c r="DB8" t="n">
-        <v>2.157894736842105</v>
+        <v>2.034050068810353</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.263157894736842</v>
+        <v>1.185917222941281</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.5028947368421053</v>
+        <v>0.4766715171609113</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.1855263157894737</v>
+        <v>0.1745853448666531</v>
       </c>
       <c r="DF8" t="n">
-        <v>5.789473684210527</v>
+        <v>5.486791610412795</v>
       </c>
       <c r="DG8" t="n">
-        <v>2.052631578947369</v>
+        <v>1.935029745806415</v>
       </c>
     </row>
     <row r="9">
@@ -3356,262 +3356,262 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.41666666666667</v>
+        <v>25.42817478370398</v>
       </c>
       <c r="C9" t="n">
-        <v>17.33333333333333</v>
+        <v>16.67103143237048</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9420833333333333</v>
+        <v>0.9007510532840732</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1916439226461251</v>
       </c>
       <c r="F9" t="n">
-        <v>10.33333333333333</v>
+        <v>9.990323390880873</v>
       </c>
       <c r="G9" t="n">
-        <v>4.708333333333333</v>
+        <v>4.590737367208768</v>
       </c>
       <c r="H9" t="n">
-        <v>1.041666666666667</v>
+        <v>1.056689257562998</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3104166666666667</v>
+        <v>0.2994558128013013</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1316666666666667</v>
+        <v>0.1278982429578523</v>
       </c>
       <c r="K9" t="n">
-        <v>6.291666666666667</v>
+        <v>6.117839858321168</v>
       </c>
       <c r="L9" t="n">
-        <v>2.791666666666667</v>
+        <v>2.725450491796858</v>
       </c>
       <c r="M9" t="n">
-        <v>58.08333333333334</v>
+        <v>55.92279075486815</v>
       </c>
       <c r="N9" t="n">
-        <v>13.75</v>
+        <v>13.19248858787666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8616666666666667</v>
+        <v>0.8271021050081263</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1552982676453766</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.70833333333333</v>
+        <v>18.97608021104005</v>
       </c>
       <c r="R9" t="n">
-        <v>15.375</v>
+        <v>14.83991261509953</v>
       </c>
       <c r="S9" t="n">
-        <v>1.625</v>
+        <v>1.585687936216155</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2358333333333333</v>
+        <v>0.2259703344216413</v>
       </c>
       <c r="U9" t="n">
-        <v>0.18125</v>
+        <v>0.1740119368697102</v>
       </c>
       <c r="V9" t="n">
-        <v>3.375</v>
+        <v>3.20018450030396</v>
       </c>
       <c r="W9" t="n">
-        <v>2.541666666666667</v>
+        <v>2.418392499065282</v>
       </c>
       <c r="X9" t="n">
-        <v>34.125</v>
+        <v>33.05331043621424</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.25</v>
+        <v>6.030272233351301</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.44375</v>
+        <v>0.4260722377069957</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07885027169247405</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.91666666666667</v>
+        <v>10.77468713600321</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.86378656515283</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8882686445445129</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1154166666666667</v>
+        <v>0.1125097029321668</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.08791666666666666</v>
+        <v>0.08509306963373532</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.458333333333333</v>
+        <v>1.424482750976973</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0.9682124939864895</v>
       </c>
       <c r="AI9" t="n">
-        <v>14.75</v>
+        <v>13.99688109319929</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03994461014060503</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.03833333333333334</v>
+        <v>0.03666002827114141</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.375</v>
+        <v>6.069976707325218</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.583333333333333</v>
+        <v>5.322023688150699</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1953548490911798</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.01625</v>
+        <v>0.01536674912623561</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.009821627107831641</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03994461014060503</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>18.51951474094291</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1958874319111169</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.06458333333333334</v>
+        <v>0.06340855194041418</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03923373892300771</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.166666666666667</v>
+        <v>6.115609992135874</v>
       </c>
       <c r="AY9" t="n">
-        <v>5.541666666666667</v>
+        <v>5.497444789190574</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08026218531250444</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.02041666666666667</v>
+        <v>0.02044721381513768</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0175</v>
+        <v>0.01767663613495588</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04102844638949672</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>3.291666666666667</v>
+        <v>3.092916286262656</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.041666666666667</v>
+        <v>0.9813052213978205</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.06958333333333334</v>
+        <v>0.06556051552182766</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.166666666666667</v>
+        <v>1.087939096045568</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1</v>
+        <v>0.9331480205985123</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1565930385578757</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.02375</v>
+        <v>0.02222124521473382</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02041666666666667</v>
+        <v>0.01912542370579271</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4263708417281273</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2715797662810718</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.708333333333334</v>
+        <v>9.372906245454958</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.916666666666667</v>
+        <v>1.858958361015333</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.1529166666666667</v>
+        <v>0.1471645616153139</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03854812347734913</v>
       </c>
       <c r="BT9" t="n">
-        <v>3.875</v>
+        <v>3.752599399358495</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.25</v>
+        <v>3.166986282735642</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.25</v>
+        <v>0.2929275350383491</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.06375</v>
+        <v>0.06128020003463088</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.05083333333333333</v>
+        <v>0.04911570265041224</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.75</v>
+        <v>0.7315732783510005</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5358932923839091</v>
       </c>
       <c r="CA9" t="n">
-        <v>8.333333333333334</v>
+        <v>7.952637672792357</v>
       </c>
       <c r="CB9" t="n">
         <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.006249999999999999</v>
+        <v>0.005854590116040892</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.458333333333333</v>
+        <v>3.268759421627834</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.333333333333333</v>
+        <v>3.149208448399385</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07834452789587491</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.00125</v>
+        <v>0.00117997276019722</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.00125</v>
+        <v>0.00117997276019722</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -3620,70 +3620,70 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>7.625</v>
+        <v>7.256613744683115</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5044307205065331</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.06625</v>
+        <v>0.06280989009675426</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.208333333333333</v>
+        <v>2.104440634764383</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.916666666666667</v>
+        <v>1.829946219436959</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0391972405142678</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.01958333333333333</v>
+        <v>0.01828639903504309</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01625</v>
+        <v>0.01513683669447149</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2691617367718177</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1902045745991937</v>
       </c>
       <c r="CW9" t="n">
-        <v>16.16666666666667</v>
+        <v>15.41196105726869</v>
       </c>
       <c r="CX9" t="n">
-        <v>15.83333333333333</v>
+        <v>15.09946965130608</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.24875</v>
+        <v>1.184665211636851</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1527008050796448</v>
       </c>
       <c r="DA9" t="n">
-        <v>5.041666666666667</v>
+        <v>4.787147344066336</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.041666666666667</v>
+        <v>1.917831973951571</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.125</v>
+        <v>1.050783565115034</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.37125</v>
+        <v>0.3494904897917732</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.1445833333333333</v>
+        <v>0.1352121159688744</v>
       </c>
       <c r="DF9" t="n">
-        <v>5</v>
+        <v>4.748259031300599</v>
       </c>
       <c r="DG9" t="n">
-        <v>2</v>
+        <v>1.878943661185834</v>
       </c>
     </row>
     <row r="10">
@@ -3693,163 +3693,163 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.31428571428571</v>
+        <v>24.22630681916543</v>
       </c>
       <c r="C10" t="n">
-        <v>12.8</v>
+        <v>12.2692736010687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8268571428571428</v>
+        <v>0.7941202772381023</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08346899218797077</v>
       </c>
       <c r="F10" t="n">
-        <v>9.857142857142858</v>
+        <v>9.419469758317751</v>
       </c>
       <c r="G10" t="n">
-        <v>4.742857142857143</v>
+        <v>4.510225194218946</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8223728856240468</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2508571428571428</v>
+        <v>0.2400367979834726</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1237142857142857</v>
+        <v>0.1171490688335654</v>
       </c>
       <c r="K10" t="n">
-        <v>4.114285714285714</v>
+        <v>3.935401272380012</v>
       </c>
       <c r="L10" t="n">
-        <v>1.8</v>
+        <v>1.712345272969419</v>
       </c>
       <c r="M10" t="n">
-        <v>54.51428571428571</v>
+        <v>52.34125788271703</v>
       </c>
       <c r="N10" t="n">
-        <v>10.91428571428571</v>
+        <v>10.49555341409603</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7502857142857143</v>
+        <v>0.7202095596259056</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05410347857745201</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.08571428571429</v>
+        <v>16.49944544422338</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>11.93057937675775</v>
       </c>
       <c r="S10" t="n">
-        <v>1.114285714285714</v>
+        <v>1.042306993115777</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2068571428571429</v>
+        <v>0.1988141516786857</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1394285714285714</v>
+        <v>0.1335021592103437</v>
       </c>
       <c r="V10" t="n">
-        <v>2.457142857142857</v>
+        <v>2.348517541306191</v>
       </c>
       <c r="W10" t="n">
-        <v>1.485714285714286</v>
+        <v>1.41043086756122</v>
       </c>
       <c r="X10" t="n">
-        <v>30.88571428571429</v>
+        <v>29.50543333937022</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.428571428571429</v>
+        <v>6.142648276993007</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.424</v>
+        <v>0.4059264239777039</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.06135919321652492</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.914285714285715</v>
+        <v>8.520173676378588</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.228571428571429</v>
+        <v>6.91397130966246</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.74088095010375</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.09628571428571429</v>
+        <v>0.09275593250783588</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.07114285714285715</v>
+        <v>0.06828705727652734</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.285714285714286</v>
+        <v>1.233281679034757</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8233877815059052</v>
       </c>
       <c r="AI10" t="n">
-        <v>15.34285714285714</v>
+        <v>14.7027057970808</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.0618695829892347</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.04028571428571429</v>
+        <v>0.0386542056151179</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>6.257142857142857</v>
+        <v>5.99244046965903</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.057142857142857</v>
+        <v>4.830171173358683</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08816231433847838</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01285714285714286</v>
+        <v>0.01242258282094415</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.009428571428571429</v>
+        <v>0.009168326946128737</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0347448090290177</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0347448090290177</v>
       </c>
       <c r="AT10" t="n">
-        <v>20.37142857142857</v>
+        <v>19.68575320081743</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1624979792470642</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.06742857142857142</v>
+        <v>0.06486434499375655</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.685714285714286</v>
+        <v>6.44920944109469</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.885714285714286</v>
+        <v>5.675352625892272</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2440382061453453</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01942857142857143</v>
+        <v>0.01858411894820625</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.01657142857142857</v>
+        <v>0.01584351164778624</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
@@ -3858,97 +3858,97 @@
         <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.857142857142857</v>
+        <v>3.681521811443212</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.257142857142857</v>
+        <v>1.198817843947442</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.07057142857142858</v>
+        <v>0.06748442734840082</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.4</v>
+        <v>1.33205390187164</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.8639417775875455</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1342703681146876</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.02571428571428571</v>
+        <v>0.02441038743259802</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01771428571428571</v>
+        <v>0.01673090558061251</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4042696562930312</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.2971156908601191</v>
       </c>
       <c r="BP10" t="n">
-        <v>9.228571428571428</v>
+        <v>8.770125981946551</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.457142857142857</v>
+        <v>1.386421792051348</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.1174285714285714</v>
+        <v>0.1115881190470911</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02644142489900845</v>
       </c>
       <c r="BT10" t="n">
-        <v>3.571428571428572</v>
+        <v>3.411875837997353</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.885714285714286</v>
+        <v>2.756355565608373</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4027244157083816</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.04828571428571429</v>
+        <v>0.04586096813225508</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.03942857142857143</v>
+        <v>0.03742224970197701</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.6</v>
+        <v>0.5629939180730278</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4287249100361306</v>
       </c>
       <c r="CA10" t="n">
-        <v>9.057142857142857</v>
+        <v>8.68289889909666</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0347448090290177</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.008571428571428572</v>
+        <v>0.00845234182845718</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.685714285714285</v>
+        <v>3.524043585876217</v>
       </c>
       <c r="CF10" t="n">
-        <v>3.685714285714285</v>
+        <v>3.524043585876217</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1388601993623049</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002285714285714286</v>
+        <v>0.002165810484081662</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.002285714285714286</v>
+        <v>0.002165810484081662</v>
       </c>
       <c r="CJ10" t="n">
         <v>0</v>
@@ -3957,70 +3957,70 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>11.22857142857143</v>
+        <v>10.79927612233426</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3387593554448378</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.07342857142857143</v>
+        <v>0.07023465114507765</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.971428571428572</v>
+        <v>2.87046058310704</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.4</v>
+        <v>2.327018236320014</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1106800464968587</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.02085714285714286</v>
+        <v>0.01984894636641852</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01371428571428571</v>
+        <v>0.01301377847666656</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1351421315268375</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07968554938189025</v>
       </c>
       <c r="CW10" t="n">
-        <v>20.82857142857143</v>
+        <v>19.81186728711257</v>
       </c>
       <c r="CX10" t="n">
-        <v>20.05714285714286</v>
+        <v>19.0845628517248</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.548857142857143</v>
+        <v>1.477856101216983</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1625002836007696</v>
       </c>
       <c r="DA10" t="n">
-        <v>4.971428571428572</v>
+        <v>4.747330112088097</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.885714285714286</v>
+        <v>1.79353389589141</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.085714285714286</v>
+        <v>1.025549818681594</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.3905714285714286</v>
+        <v>0.3731822446765465</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.126</v>
+        <v>0.1197446056312491</v>
       </c>
       <c r="DF10" t="n">
-        <v>4.714285714285714</v>
+        <v>4.504880768383567</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.742857142857143</v>
+        <v>1.658688554224645</v>
       </c>
     </row>
     <row r="11">
@@ -4030,130 +4030,130 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>26.92897961810604</v>
       </c>
       <c r="C11" t="n">
-        <v>16.28571428571428</v>
+        <v>15.70756251919184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9731428571428572</v>
+        <v>0.9370388871739863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.2146612973830994</v>
       </c>
       <c r="F11" t="n">
-        <v>11.22857142857143</v>
+        <v>10.78886053819611</v>
       </c>
       <c r="G11" t="n">
-        <v>5.142857142857143</v>
+        <v>4.934352244520958</v>
       </c>
       <c r="H11" t="n">
-        <v>1.028571428571428</v>
+        <v>0.9702271625096162</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2985714285714285</v>
+        <v>0.2870042606236147</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1305714285714286</v>
+        <v>0.1250315398661255</v>
       </c>
       <c r="K11" t="n">
-        <v>5.485714285714286</v>
+        <v>5.288461328707346</v>
       </c>
       <c r="L11" t="n">
-        <v>2.457142857142857</v>
+        <v>2.350652789192285</v>
       </c>
       <c r="M11" t="n">
-        <v>54.22857142857143</v>
+        <v>51.95022176537091</v>
       </c>
       <c r="N11" t="n">
-        <v>10.97142857142857</v>
+        <v>10.44861939988742</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7122857142857143</v>
+        <v>0.6801623916374503</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3288538784093079</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.34285714285714</v>
+        <v>16.63224661545938</v>
       </c>
       <c r="R11" t="n">
-        <v>14.08571428571429</v>
+        <v>13.53238047132968</v>
       </c>
       <c r="S11" t="n">
-        <v>1.571428571428571</v>
+        <v>1.488695741111075</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1897142857142857</v>
+        <v>0.1808886437321958</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1457142857142857</v>
+        <v>0.1389950908337595</v>
       </c>
       <c r="V11" t="n">
-        <v>2.571428571428572</v>
+        <v>2.422500761006074</v>
       </c>
       <c r="W11" t="n">
-        <v>1.857142857142857</v>
+        <v>1.745410782067401</v>
       </c>
       <c r="X11" t="n">
-        <v>37.8</v>
+        <v>36.26229846069909</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.371428571428571</v>
+        <v>7.035346372792216</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4908571428571428</v>
+        <v>0.469292066806258</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05786738125517013</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.42857142857143</v>
+        <v>10.98200894713977</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.685714285714285</v>
+        <v>9.298011863233343</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.028571428571428</v>
+        <v>0.981188440111076</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1014285714285714</v>
+        <v>0.09762126147366916</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07285714285714286</v>
+        <v>0.07020396103108613</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.371428571428571</v>
+        <v>1.310626071554592</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.794728099048374</v>
       </c>
       <c r="AI11" t="n">
-        <v>12.02857142857143</v>
+        <v>11.48691563152977</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03142857142857143</v>
+        <v>0.02998766416948637</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.771428571428571</v>
+        <v>5.518868437598869</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.028571428571428</v>
+        <v>4.796791838563562</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2</v>
+        <v>0.1907105713161971</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01342857142857143</v>
+        <v>0.01278310523291827</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01057142857142857</v>
+        <v>0.01006218209791885</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4162,130 +4162,130 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>17.82857142857143</v>
+        <v>17.20678655878087</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1095331565485452</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.05971428571428571</v>
+        <v>0.05720690307580076</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03000115004408502</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.171428571428572</v>
+        <v>5.922475906244395</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.6</v>
+        <v>5.374261528592217</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2405451260674165</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01685714285714286</v>
+        <v>0.01595408392127616</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01485714285714286</v>
+        <v>0.01404861227687128</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02731204005765875</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02731204005765875</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.085714285714286</v>
+        <v>2.94786925273947</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.257142857142857</v>
+        <v>1.200143669957825</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.06028571428571428</v>
+        <v>0.05750694268578279</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.142857142857143</v>
+        <v>1.096926248515837</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6067222966890606</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03000115004408502</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02228571428571429</v>
+        <v>0.02126788005266939</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01171428571428571</v>
+        <v>0.01125785324821883</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.5148367147445091</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2435860922944595</v>
       </c>
       <c r="BP11" t="n">
-        <v>8.314285714285715</v>
+        <v>7.971147329000714</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.285714285714286</v>
+        <v>1.250186707685894</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.11</v>
+        <v>0.1055680041496187</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02662788857116229</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.714285714285714</v>
+        <v>3.567217968973621</v>
       </c>
       <c r="BU11" t="n">
-        <v>2.971428571428572</v>
+        <v>2.855891451855648</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4341257274744157</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.04657142857142858</v>
+        <v>0.04480722849281242</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.03657142857142857</v>
+        <v>0.03526914058777538</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.5265994670707111</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4458571477941151</v>
       </c>
       <c r="CA11" t="n">
-        <v>7.085714285714285</v>
+        <v>6.867352173060013</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02667457024303497</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.007142857142857143</v>
+        <v>0.006662378873845342</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.914285714285714</v>
+        <v>2.799075189253917</v>
       </c>
       <c r="CF11" t="n">
-        <v>2.8</v>
+        <v>2.690811751955565</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05338790763891978</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.001142857142857143</v>
+        <v>0.001084228028959296</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0008571428571428571</v>
+        <v>0.0008032006553318413</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
@@ -4294,70 +4294,70 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>6.8</v>
+        <v>6.514656401846104</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2688513847773607</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.05371428571428571</v>
+        <v>0.05133552592584556</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02758126129107884</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.714285714285714</v>
+        <v>1.661582116334192</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.514285714285714</v>
+        <v>1.470513871921787</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.06843974339846855</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.008857142857142857</v>
+        <v>0.008668565342475528</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.006857142857142858</v>
+        <v>0.006768807280631842</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02696265672044219</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>24.45714285714286</v>
+        <v>23.78104607955274</v>
       </c>
       <c r="CX11" t="n">
-        <v>23.94285714285714</v>
+        <v>23.27913422739252</v>
       </c>
       <c r="CY11" t="n">
-        <v>2.024285714285714</v>
+        <v>1.959836013792659</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.2161569522794845</v>
       </c>
       <c r="DA11" t="n">
-        <v>6.657142857142857</v>
+        <v>6.471742316194189</v>
       </c>
       <c r="DB11" t="n">
-        <v>2.228571428571429</v>
+        <v>2.128502417191329</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8965553050517662</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.580857142857143</v>
+        <v>0.5634287345274089</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.2145714285714286</v>
+        <v>0.2062270185115348</v>
       </c>
       <c r="DF11" t="n">
-        <v>6.485714285714286</v>
+        <v>6.308760679903993</v>
       </c>
       <c r="DG11" t="n">
-        <v>2.114285714285714</v>
+        <v>2.020261644075379</v>
       </c>
     </row>
     <row r="12">
@@ -4367,130 +4367,130 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.20588235294118</v>
+        <v>23.93895063833406</v>
       </c>
       <c r="C12" t="n">
-        <v>12.38235294117647</v>
+        <v>11.78366036892793</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7452941176470588</v>
+        <v>0.7093007702253162</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2579188574454069</v>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>9.975952834242936</v>
       </c>
       <c r="G12" t="n">
-        <v>4.529411764705882</v>
+        <v>4.321718492360846</v>
       </c>
       <c r="H12" t="n">
-        <v>1.088235294117647</v>
+        <v>1.046082928783705</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2423529411764706</v>
+        <v>0.2300088623229056</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1041176470588235</v>
+        <v>0.09939860090017476</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.800995082720371</v>
       </c>
       <c r="L12" t="n">
-        <v>1.647058823529412</v>
+        <v>1.577973502354716</v>
       </c>
       <c r="M12" t="n">
-        <v>50.11764705882353</v>
+        <v>47.70579957883925</v>
       </c>
       <c r="N12" t="n">
-        <v>10.14705882352941</v>
+        <v>9.689363825936649</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6952941176470588</v>
+        <v>0.6632520900798231</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02713067762183333</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.17647058823529</v>
+        <v>16.35432592996158</v>
       </c>
       <c r="R12" t="n">
-        <v>12.11764705882353</v>
+        <v>11.55949887175616</v>
       </c>
       <c r="S12" t="n">
-        <v>1.441176470588235</v>
+        <v>1.374382332094633</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.2019425739548541</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.1337411104303788</v>
       </c>
       <c r="V12" t="n">
-        <v>2.970588235294118</v>
+        <v>2.838575225108942</v>
       </c>
       <c r="W12" t="n">
-        <v>1.852941176470588</v>
+        <v>1.782343109190994</v>
       </c>
       <c r="X12" t="n">
-        <v>30.97058823529412</v>
+        <v>29.42232663525883</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.264705882352941</v>
+        <v>5.009075532985892</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3705882352941177</v>
+        <v>0.3521920468807634</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08410350211468744</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.794117647058824</v>
+        <v>9.284604114821999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.911764705882353</v>
+        <v>7.494823678021155</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.058823529411765</v>
+        <v>1.002214229765086</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1108823529411765</v>
+        <v>0.1049234063703115</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.07558823529411765</v>
+        <v>0.07145491250708126</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.5</v>
+        <v>1.423176227966113</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8650685598595539</v>
       </c>
       <c r="AI12" t="n">
-        <v>13.08823529411765</v>
+        <v>12.45949929770902</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.04205882352941176</v>
+        <v>0.03986478677435453</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.441176470588236</v>
+        <v>5.19362222828175</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.588235294117647</v>
+        <v>4.386435658658796</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05524789566812287</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01529411764705882</v>
+        <v>0.01452979759991616</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01147058823529412</v>
+        <v>0.01092714629315219</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4499,127 +4499,127 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>15.47058823529412</v>
+        <v>14.72272182245716</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1122856640333665</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.045</v>
+        <v>0.04276126492638079</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.027683976944784</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.264705882352941</v>
+        <v>4.994267286633052</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.5</v>
+        <v>4.256233360100697</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1664647909805907</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.01411764705882353</v>
+        <v>0.01340922490051072</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.009117647058823529</v>
+        <v>0.00861945778352736</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05714174444663435</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.882352941176471</v>
+        <v>3.696463270219677</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.323529411764706</v>
+        <v>1.271131443050868</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.07029411764705883</v>
+        <v>0.06711873703530238</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.470588235294118</v>
+        <v>1.404034582583408</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8615473155777917</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1976937939297611</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.02323529411764706</v>
+        <v>0.02234366835064232</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.01402246955106796</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.373714317647397</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1971658792728613</v>
       </c>
       <c r="BP12" t="n">
-        <v>9.676470588235293</v>
+        <v>9.18495422107846</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.441176470588235</v>
+        <v>1.36826937668864</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.1376470588235294</v>
+        <v>0.1308049702522662</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1103649688371581</v>
       </c>
       <c r="BT12" t="n">
-        <v>4.147058823529412</v>
+        <v>3.949010895194905</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.382352941176471</v>
+        <v>3.221654039426799</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5574565063174218</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.06529411764705884</v>
+        <v>0.0620649229183771</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.05470588235294118</v>
+        <v>0.05192353853216369</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5605942007536332</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3925734197974626</v>
       </c>
       <c r="CA12" t="n">
-        <v>8.117647058823529</v>
+        <v>7.768430610287015</v>
       </c>
       <c r="CB12" t="n">
         <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.005294117647058823</v>
+        <v>0.004948389308843213</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.470588235294118</v>
+        <v>3.325935299736102</v>
       </c>
       <c r="CF12" t="n">
-        <v>3.352941176470588</v>
+        <v>3.215179831692732</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05479257530837438</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0005882352941176471</v>
+        <v>0.0005426135524366665</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
@@ -4631,70 +4631,70 @@
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>8.088235294117647</v>
+        <v>7.692269074821892</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2215472121852679</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.05970588235294119</v>
+        <v>0.05677918338691497</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.029411764705882</v>
+        <v>1.92776153933895</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.617647058823529</v>
+        <v>1.534636359013247</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05631356303710304</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.01441176470588235</v>
+        <v>0.01366669348530588</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01058823529411765</v>
+        <v>0.01003219422867531</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05645965160383924</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02887721536370532</v>
       </c>
       <c r="CW12" t="n">
-        <v>17</v>
+        <v>16.23458215764375</v>
       </c>
       <c r="CX12" t="n">
-        <v>16.11764705882353</v>
+        <v>15.40365981279165</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.25</v>
+        <v>1.198096257110567</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1110554931558106</v>
       </c>
       <c r="DA12" t="n">
-        <v>5</v>
+        <v>4.759717513616195</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.029411764705882</v>
+        <v>1.941287474080676</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.205882352941176</v>
+        <v>1.164825038269706</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.3902941176470588</v>
+        <v>0.3735164103383527</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.1620588235294118</v>
+        <v>0.1564305831169245</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.588235294117647</v>
+        <v>4.370044872957195</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.970588235294118</v>
+        <v>1.884973911043572</v>
       </c>
     </row>
     <row r="13">
@@ -4704,262 +4704,262 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.80555555555556</v>
+        <v>30.32953163523842</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5</v>
+        <v>16.6909587526903</v>
       </c>
       <c r="D13" t="n">
-        <v>1.039722222222222</v>
+        <v>0.9944149338126039</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2122514621900679</v>
       </c>
       <c r="F13" t="n">
-        <v>13.33333333333333</v>
+        <v>12.72722789652197</v>
       </c>
       <c r="G13" t="n">
-        <v>6.194444444444445</v>
+        <v>5.897387882736335</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.844090293693636</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3766666666666667</v>
+        <v>0.3598940416935296</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1569444444444444</v>
+        <v>0.1488489530404415</v>
       </c>
       <c r="K13" t="n">
-        <v>6.416666666666667</v>
+        <v>6.114926969553914</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.607345969588561</v>
       </c>
       <c r="M13" t="n">
-        <v>48</v>
+        <v>45.81574481717646</v>
       </c>
       <c r="N13" t="n">
-        <v>10.22222222222222</v>
+        <v>9.749729469426606</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7</v>
+        <v>0.6679954283007574</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1044472349201478</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.69444444444444</v>
+        <v>15.89891243423377</v>
       </c>
       <c r="R13" t="n">
-        <v>12.13888888888889</v>
+        <v>11.57220395099846</v>
       </c>
       <c r="S13" t="n">
-        <v>1.055555555555556</v>
+        <v>1.00185539679692</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2038888888888889</v>
+        <v>0.194136332173381</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1366666666666667</v>
+        <v>0.1301078740295045</v>
       </c>
       <c r="V13" t="n">
-        <v>2.527777777777778</v>
+        <v>2.400670858654326</v>
       </c>
       <c r="W13" t="n">
-        <v>1.583333333333333</v>
+        <v>1.502678915239472</v>
       </c>
       <c r="X13" t="n">
-        <v>30.69444444444444</v>
+        <v>29.25317725189418</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.972222222222222</v>
+        <v>5.686071433571746</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.395</v>
+        <v>0.3759048913662796</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05324010928746144</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.333333333333334</v>
+        <v>8.972022705399892</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.916666666666667</v>
+        <v>7.617436705069443</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.7942431769381701</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.09138888888888889</v>
+        <v>0.08780861272511095</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06740260420936886</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.222222222222222</v>
+        <v>1.175659038855039</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8327350543281018</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.88888888888889</v>
+        <v>13.24864658186606</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1059745114480685</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.04888888888888889</v>
+        <v>0.04653419647776413</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.083333333333333</v>
+        <v>5.794921968326028</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>4.754286395201119</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1850281973793806</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01888888888888889</v>
+        <v>0.01786845793763593</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01277777777777778</v>
+        <v>0.01203795879402193</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05204361499839711</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0261151154288102</v>
       </c>
       <c r="AT13" t="n">
-        <v>16.52777777777778</v>
+        <v>15.79127902468733</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1327296812489835</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0525</v>
+        <v>0.04971633374618993</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.333333333333333</v>
+        <v>6.06962980259795</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.666666666666667</v>
+        <v>5.438322181829657</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1585856902636794</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.01972222222222222</v>
+        <v>0.01870360962742843</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.01632535946455095</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02592849956958691</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02592849956958691</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.388888888888889</v>
+        <v>2.29411188558726</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7407111772391145</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.05305555555555555</v>
+        <v>0.05077897900703553</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.843342617135757</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4502559367639142</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0175</v>
+        <v>0.01669388595570355</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.008605474107203519</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2668456081728089</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1624671909778214</v>
       </c>
       <c r="BP13" t="n">
-        <v>6.861111111111111</v>
+        <v>6.539277191518239</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.194444444444444</v>
+        <v>1.145668971579561</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.09861111111111112</v>
+        <v>0.09486215555384334</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07696596569197199</v>
       </c>
       <c r="BT13" t="n">
-        <v>3.222222222222222</v>
+        <v>3.082128549452223</v>
       </c>
       <c r="BU13" t="n">
-        <v>2.416666666666667</v>
+        <v>2.321841420373561</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2864749986452782</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.03916666666666667</v>
+        <v>0.0375889344038268</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.02888888888888889</v>
+        <v>0.02786887613372059</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3959549522130998</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2911679199837058</v>
       </c>
       <c r="CA13" t="n">
-        <v>7.861111111111111</v>
+        <v>7.551325234586238</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02735828408842197</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.005833333333333333</v>
+        <v>0.005556674955376384</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>3.083333333333333</v>
+        <v>2.960536201821813</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.916666666666667</v>
+        <v>2.80118872280302</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02587456013247775</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0008333333333333333</v>
+        <v>0.0007942240769320964</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0005555555555555556</v>
+        <v>0.0005292026632018669</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
@@ -4968,70 +4968,70 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>8.777777777777779</v>
+        <v>8.397306711774077</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6812537884916035</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.08416666666666667</v>
+        <v>0.08046297339977324</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02635546137870689</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.972222222222222</v>
+        <v>2.865089389621498</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.277777777777778</v>
+        <v>2.209184793420477</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02635546137870689</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.03138888888888889</v>
+        <v>0.03018969747870595</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.02153284202716077</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2870370110961435</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1050070691199266</v>
       </c>
       <c r="CW13" t="n">
-        <v>18.66666666666667</v>
+        <v>17.77012242608656</v>
       </c>
       <c r="CX13" t="n">
-        <v>17.69444444444444</v>
+        <v>16.82012417220067</v>
       </c>
       <c r="CY13" t="n">
-        <v>1.343055555555556</v>
+        <v>1.275897773209412</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1555274770065869</v>
       </c>
       <c r="DA13" t="n">
-        <v>4.972222222222222</v>
+        <v>4.719743003259989</v>
       </c>
       <c r="DB13" t="n">
-        <v>1.777777777777778</v>
+        <v>1.687189368477311</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6942636899004949</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.3788888888888889</v>
+        <v>0.3595147692618126</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.1305555555555556</v>
+        <v>0.1243834072611399</v>
       </c>
       <c r="DF13" t="n">
-        <v>4.722222222222222</v>
+        <v>4.478690022190479</v>
       </c>
       <c r="DG13" t="n">
-        <v>1.666666666666667</v>
+        <v>1.581784898969899</v>
       </c>
     </row>
     <row r="14">
@@ -5041,130 +5041,130 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.96153846153846</v>
+        <v>21.75480803476035</v>
       </c>
       <c r="C14" t="n">
-        <v>13.53846153846154</v>
+        <v>14.13930374100096</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7642307692307693</v>
+        <v>0.7885648716625042</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07619083147188752</v>
       </c>
       <c r="F14" t="n">
-        <v>7.384615384615385</v>
+        <v>7.429467517043275</v>
       </c>
       <c r="G14" t="n">
-        <v>3.307692307692307</v>
+        <v>3.352592019149504</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7861925899939758</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2146153846153846</v>
+        <v>0.214900361179901</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.09927564789699657</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.057860623668978</v>
       </c>
       <c r="L14" t="n">
-        <v>1.807692307692308</v>
+        <v>1.886085728737515</v>
       </c>
       <c r="M14" t="n">
-        <v>47.84615384615385</v>
+        <v>48.95180227344181</v>
       </c>
       <c r="N14" t="n">
-        <v>9.538461538461538</v>
+        <v>9.873521018568324</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6534615384615385</v>
+        <v>0.6750808117906613</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.07750522729699658</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.03846153846154</v>
+        <v>14.16845738891166</v>
       </c>
       <c r="R14" t="n">
-        <v>10.84615384615385</v>
+        <v>10.84828899165886</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9374423344522694</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1573076923076923</v>
+        <v>0.1616798919034463</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1084615384615385</v>
+        <v>0.1107293864563782</v>
       </c>
       <c r="V14" t="n">
-        <v>2.346153846153846</v>
+        <v>2.432792655817146</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.523593234247801</v>
       </c>
       <c r="X14" t="n">
-        <v>26.38461538461538</v>
+        <v>27.02159185831414</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.153846153846154</v>
+        <v>5.295140379129605</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3353846153846154</v>
+        <v>0.3464294709525887</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1464094579398049</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.269230769230769</v>
+        <v>7.317550375733372</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.038461538461538</v>
+        <v>5.946744741208926</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5089498235649386</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0673076923076923</v>
+        <v>0.06835659076777609</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04884615384615384</v>
+        <v>0.04740889077970235</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.038461538461539</v>
+        <v>1.076051569380873</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.6901290992054334</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.076923076923077</v>
+        <v>9.494665012942287</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01884615384615385</v>
+        <v>0.01839282400628939</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>3.692307692307693</v>
+        <v>3.977142041071912</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.115384615384615</v>
+        <v>3.416996530099786</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03587830080367394</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.007307692307692308</v>
+        <v>0.007103267717395765</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.004615384615384615</v>
+        <v>0.004408447400535016</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5173,31 +5173,31 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>16.30769230769231</v>
+        <v>17.4654878489298</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1085080057308034</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.045</v>
+        <v>0.04671810637955461</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.038461538461538</v>
+        <v>5.280637667877612</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.538461538461538</v>
+        <v>4.785783736057577</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03623926613070134</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.01</v>
+        <v>0.009932088037066581</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.008076923076923077</v>
+        <v>0.008106803679758573</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
@@ -5206,97 +5206,97 @@
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.923076923076923</v>
+        <v>3.197182618577759</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.115384615384615</v>
+        <v>1.22872029034833</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.07230769230769231</v>
+        <v>0.09350412405535226</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.230769230769231</v>
+        <v>1.351235480030218</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.7184081778215469</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.0726832222895215</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.02192307692307693</v>
+        <v>0.02387620265001271</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.01192307692307692</v>
+        <v>0.01310970086324305</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3882316744597223</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2783540542453198</v>
       </c>
       <c r="BP14" t="n">
-        <v>7.307692307692307</v>
+        <v>7.283919380222724</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.814681331455434</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.09423076923076924</v>
+        <v>0.09167488339691504</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03594536304816678</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.807692307692307</v>
+        <v>2.786740925814124</v>
       </c>
       <c r="BU14" t="n">
-        <v>2.423076923076923</v>
+        <v>2.422074642040141</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3144588821261214</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.03807692307692308</v>
+        <v>0.03693145745977101</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.03269230769230769</v>
+        <v>0.03182439593720611</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2607472630469453</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2248018999987785</v>
       </c>
       <c r="CA14" t="n">
-        <v>8.846153846153847</v>
+        <v>9.964331643138918</v>
       </c>
       <c r="CB14" t="n">
         <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.002307692307692307</v>
+        <v>0.002150796243507813</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.653846153846154</v>
+        <v>4.186121992073932</v>
       </c>
       <c r="CF14" t="n">
-        <v>3.538461538461538</v>
+        <v>4.074994696005169</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.001153846153846154</v>
+        <v>0.001081030070384428</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0007692307692307692</v>
+        <v>0.000722392034190677</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -5305,70 +5305,70 @@
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>6.807692307692307</v>
+        <v>7.348499461861065</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.332394039583543</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.045</v>
+        <v>0.04880679362499288</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.884615384615385</v>
+        <v>2.052538170503057</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.538461538461539</v>
+        <v>1.685106181739786</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.00923076923076923</v>
+        <v>0.009376801726411494</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.006538461538461539</v>
+        <v>0.006837062101403063</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1072014093591531</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07133054447274419</v>
       </c>
       <c r="CW14" t="n">
-        <v>14.30769230769231</v>
+        <v>15.65618633819149</v>
       </c>
       <c r="CX14" t="n">
-        <v>13.96153846153846</v>
+        <v>15.31634042651999</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.111538461538462</v>
+        <v>1.206126644648022</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07087183776064176</v>
       </c>
       <c r="DA14" t="n">
-        <v>3.269230769230769</v>
+        <v>3.400634903001282</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.230769230769231</v>
+        <v>1.197890501875782</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.5</v>
+        <v>0.5061429520712037</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.2246153846153846</v>
+        <v>0.2283944861210866</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.08730769230769231</v>
+        <v>0.08437267368331915</v>
       </c>
       <c r="DF14" t="n">
-        <v>3.153846153846154</v>
+        <v>3.292288648932829</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.192307692307692</v>
+        <v>1.16165123574508</v>
       </c>
     </row>
     <row r="15">
@@ -5378,130 +5378,130 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.81081081081081</v>
+        <v>26.90426447058343</v>
       </c>
       <c r="C15" t="n">
-        <v>15.48648648648649</v>
+        <v>15.04673520745473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9240540540540539</v>
+        <v>0.8965315849925267</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2870960312867608</v>
       </c>
       <c r="F15" t="n">
-        <v>12.43243243243243</v>
+        <v>12.01583763367316</v>
       </c>
       <c r="G15" t="n">
-        <v>6.702702702702703</v>
+        <v>6.434932547445674</v>
       </c>
       <c r="H15" t="n">
-        <v>1.459459459459459</v>
+        <v>1.410002060467914</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.3264229587200813</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1845945945945946</v>
+        <v>0.1777300159005155</v>
       </c>
       <c r="K15" t="n">
-        <v>5.891891891891892</v>
+        <v>5.720440539146992</v>
       </c>
       <c r="L15" t="n">
-        <v>3.378378378378379</v>
+        <v>3.260793531700628</v>
       </c>
       <c r="M15" t="n">
-        <v>48.7027027027027</v>
+        <v>46.84956702220035</v>
       </c>
       <c r="N15" t="n">
-        <v>10.18918918918919</v>
+        <v>9.895879042671385</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6959459459459459</v>
+        <v>0.6739704635882606</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1316537502253713</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.24324324324324</v>
+        <v>14.64036200691368</v>
       </c>
       <c r="R15" t="n">
-        <v>11.62162162162162</v>
+        <v>11.16094510563518</v>
       </c>
       <c r="S15" t="n">
-        <v>1.162162162162162</v>
+        <v>1.116673041555642</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1959459459459459</v>
+        <v>0.1887792893743514</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1367567567567568</v>
+        <v>0.1318735316704159</v>
       </c>
       <c r="V15" t="n">
-        <v>2.432432432432432</v>
+        <v>2.340843628482854</v>
       </c>
       <c r="W15" t="n">
-        <v>1.594594594594595</v>
+        <v>1.536170258136193</v>
       </c>
       <c r="X15" t="n">
-        <v>36.62162162162162</v>
+        <v>35.49780976791246</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.675675675675675</v>
+        <v>6.482134273305905</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.4454054054054054</v>
+        <v>0.4319166098253633</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.105708807151003</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.75675675675676</v>
+        <v>11.3734794619486</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.189189189189189</v>
+        <v>8.89272041601963</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.243243243243243</v>
+        <v>1.211239102807423</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.132972972972973</v>
+        <v>0.1282469194177305</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.09108108108108108</v>
+        <v>0.08789845260200928</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.918918918918919</v>
+        <v>1.841331090828169</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.162162162162162</v>
+        <v>1.120543574399812</v>
       </c>
       <c r="AI15" t="n">
-        <v>12.24324324324324</v>
+        <v>11.79727591911576</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02499134327637066</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.04027027027027027</v>
+        <v>0.03866087087675651</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02492246344705361</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.027027027027027</v>
+        <v>4.835454117991784</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.243243243243243</v>
+        <v>4.094350783815301</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.204284898384691</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.01405405405405405</v>
+        <v>0.01342103941228488</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.01009962129742773</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5510,130 +5510,130 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>21.32432432432432</v>
+        <v>20.51068923083201</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2055575376928094</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.06972972972972973</v>
+        <v>0.06721041549829915</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>8.162162162162161</v>
+        <v>7.819122116527041</v>
       </c>
       <c r="AY15" t="n">
-        <v>7.324324324324325</v>
+        <v>7.024802460195611</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1024901226551396</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.02162162162162162</v>
+        <v>0.02066875068817911</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.01810810810810811</v>
+        <v>0.01730330453866015</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07720046181477142</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07720046181477142</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.081081081081081</v>
+        <v>2.963230989562796</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.027027027027027</v>
+        <v>0.9938787258685159</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.06486486486486487</v>
+        <v>0.06250406654497372</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>1.135135135135135</v>
+        <v>1.090114465720572</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.7793883555196836</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1325009201298832</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.01945945945945946</v>
+        <v>0.01881945311530744</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01432432432432433</v>
+        <v>0.01389638202407281</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3428044273471793</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2909781939130185</v>
       </c>
       <c r="BP15" t="n">
-        <v>9.351351351351351</v>
+        <v>9.01257485029033</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.783783783783784</v>
+        <v>1.709739940762095</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.1318918918918919</v>
+        <v>0.1272166823199692</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0544348093144436</v>
       </c>
       <c r="BT15" t="n">
-        <v>3.45945945945946</v>
+        <v>3.326765553883537</v>
       </c>
       <c r="BU15" t="n">
-        <v>2.864864864864865</v>
+        <v>2.76193317131023</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3409010010628543</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.04756756756756757</v>
+        <v>0.04550628003756708</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.03783783783783784</v>
+        <v>0.03626617838315032</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.5899152585898182</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4870388413847394</v>
       </c>
       <c r="CA15" t="n">
-        <v>9.567567567567568</v>
+        <v>9.434387556952689</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0579979120751653</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.007567567567567568</v>
+        <v>0.007978445040655669</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>3.972972972972973</v>
+        <v>3.907031551286883</v>
       </c>
       <c r="CF15" t="n">
-        <v>3.72972972972973</v>
+        <v>3.669844967989839</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02499134327637066</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.002432432432432432</v>
+        <v>0.002383883513517207</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001621621621621622</v>
+        <v>0.001566400799140458</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -5642,70 +5642,70 @@
         <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>8.486486486486486</v>
+        <v>8.153772005707735</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.6428052124945308</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.06675675675675677</v>
+        <v>0.06387211709486841</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02492246344705361</v>
       </c>
       <c r="CP15" t="n">
-        <v>2.72972972972973</v>
+        <v>2.619603349009298</v>
       </c>
       <c r="CQ15" t="n">
-        <v>2.135135135135135</v>
+        <v>2.05225508629751</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1531526576752293</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.02171635804684761</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.01459459459459459</v>
+        <v>0.01397754640537879</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2810481223915409</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1262773476301139</v>
       </c>
       <c r="CW15" t="n">
-        <v>17.59459459459459</v>
+        <v>17.02580019450708</v>
       </c>
       <c r="CX15" t="n">
-        <v>16.83783783783784</v>
+        <v>16.30752389912556</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.292702702702703</v>
+        <v>1.251291795532499</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1280888899775538</v>
       </c>
       <c r="DA15" t="n">
-        <v>4.918918918918919</v>
+        <v>4.709775883410788</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.027027027027027</v>
+        <v>1.945558060283339</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.918918918918919</v>
+        <v>0.8783130867503657</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.3559459459459459</v>
+        <v>0.3407827170390038</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.1275675675675676</v>
+        <v>0.1224996828722733</v>
       </c>
       <c r="DF15" t="n">
-        <v>4.756756756756757</v>
+        <v>4.556725942002685</v>
       </c>
       <c r="DG15" t="n">
-        <v>1.945945945945946</v>
+        <v>1.868994063416302</v>
       </c>
     </row>
     <row r="16">
@@ -5715,262 +5715,262 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.08333333333334</v>
+        <v>30.65397238450281</v>
       </c>
       <c r="C16" t="n">
-        <v>14.58333333333333</v>
+        <v>13.90170388414245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8586111111111111</v>
+        <v>0.8194790275593564</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1387650150111188</v>
       </c>
       <c r="F16" t="n">
-        <v>11.83333333333333</v>
+        <v>11.31603277569705</v>
       </c>
       <c r="G16" t="n">
-        <v>5.027777777777778</v>
+        <v>4.811885006105078</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.9511868869498721</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2805555555555556</v>
+        <v>0.2686282025557578</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1236111111111111</v>
+        <v>0.1185072421051857</v>
       </c>
       <c r="K16" t="n">
-        <v>4.75</v>
+        <v>4.549222502332671</v>
       </c>
       <c r="L16" t="n">
-        <v>2.138888888888889</v>
+        <v>2.047828100934838</v>
       </c>
       <c r="M16" t="n">
-        <v>49.94444444444444</v>
+        <v>47.49567960332701</v>
       </c>
       <c r="N16" t="n">
-        <v>9.75</v>
+        <v>9.282071693099354</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6572222222222223</v>
+        <v>0.6242168052553114</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07889750884469979</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.77777777777778</v>
+        <v>15.98604894449305</v>
       </c>
       <c r="R16" t="n">
-        <v>12.16666666666667</v>
+        <v>11.59704027760672</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0.953307722046287</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1888888888888889</v>
+        <v>0.1799857121142515</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1283333333333333</v>
+        <v>0.1225788702622772</v>
       </c>
       <c r="V16" t="n">
-        <v>2.472222222222222</v>
+        <v>2.364818876131755</v>
       </c>
       <c r="W16" t="n">
-        <v>1.666666666666667</v>
+        <v>1.598153900358728</v>
       </c>
       <c r="X16" t="n">
-        <v>31.47222222222222</v>
+        <v>29.94619412301491</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.388888888888889</v>
+        <v>5.134625998207381</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3597222222222223</v>
+        <v>0.3426314029289381</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05216840298674895</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.555555555555555</v>
+        <v>8.163568580494605</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.672788279295775</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6116481992959102</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07978078442283597</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.06055555555555556</v>
+        <v>0.05813793177140922</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.166666666666667</v>
+        <v>1.117990456413476</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.7736621644015959</v>
       </c>
       <c r="AI16" t="n">
-        <v>12.5</v>
+        <v>11.92291179384958</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05455074955012715</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03944444444444444</v>
+        <v>0.03766291567969902</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>5.694444444444445</v>
+        <v>5.398434397389933</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.388888888888889</v>
+        <v>4.163277830727937</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1277783079272101</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.01694444444444444</v>
+        <v>0.01602104069593131</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.01083333333333333</v>
+        <v>0.01027241052011235</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02807695331364203</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02807695331364203</v>
       </c>
       <c r="AT16" t="n">
-        <v>18.69444444444444</v>
+        <v>17.84156668766017</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2637094138454423</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.06472222222222222</v>
+        <v>0.06155955386003445</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02616431187859759</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.444444444444445</v>
+        <v>6.162518853378177</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.666666666666667</v>
+        <v>5.413673568063314</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1845502674613251</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01589891120086125</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0125</v>
+        <v>0.01193981160930338</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08158226691589889</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05567553116460354</v>
       </c>
       <c r="BE16" t="n">
-        <v>2.5</v>
+        <v>2.359404308828773</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6330007236425181</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.04611111111111111</v>
+        <v>0.04367911465564307</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8710638430079733</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6053709557694295</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02785049852392358</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.01916666666666667</v>
+        <v>0.0184333179949214</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.0105899652891236</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2173753411302542</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1075862155483679</v>
       </c>
       <c r="BP16" t="n">
-        <v>7.222222222222222</v>
+        <v>6.869502305923839</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.277777777777778</v>
+        <v>1.223881149968885</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.1022222222222222</v>
+        <v>0.09748448620745051</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02797108908232451</v>
       </c>
       <c r="BT16" t="n">
-        <v>3.111111111111111</v>
+        <v>2.96731648611787</v>
       </c>
       <c r="BU16" t="n">
-        <v>2.388888888888889</v>
+        <v>2.273773481334662</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3987021269838864</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.04500000000000001</v>
+        <v>0.04293391917644302</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.03083333333333334</v>
+        <v>0.02939074808504327</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5327989012944383</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3465508763449522</v>
       </c>
       <c r="CA16" t="n">
-        <v>8.027777777777779</v>
+        <v>7.668584334945134</v>
       </c>
       <c r="CB16" t="n">
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.007500000000000001</v>
+        <v>0.007076413440064384</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>3.416666666666667</v>
+        <v>3.259785783113725</v>
       </c>
       <c r="CF16" t="n">
-        <v>3.333333333333333</v>
+        <v>3.182686268709441</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08129199869169658</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.001944444444444445</v>
+        <v>0.001854539792398123</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.001944444444444445</v>
+        <v>0.001854539792398123</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
@@ -5979,70 +5979,70 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>10.19444444444444</v>
+        <v>9.672103945419789</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4194242623860037</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.08833333333333333</v>
+        <v>0.08331949014237151</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02647379623648512</v>
       </c>
       <c r="CP16" t="n">
-        <v>2.638888888888889</v>
+        <v>2.503335595358402</v>
       </c>
       <c r="CQ16" t="n">
-        <v>2</v>
+        <v>1.90168657258922</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07841414724998698</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.02111111111111111</v>
+        <v>0.01991228596755962</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.015</v>
+        <v>0.01415200926700015</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02647379623648512</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02647379623648512</v>
       </c>
       <c r="CW16" t="n">
-        <v>16.33333333333333</v>
+        <v>15.5113482014591</v>
       </c>
       <c r="CX16" t="n">
-        <v>15.63888888888889</v>
+        <v>14.8530495356358</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.144722222222222</v>
+        <v>1.086394757324859</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1038082050357216</v>
       </c>
       <c r="DA16" t="n">
-        <v>4.277777777777778</v>
+        <v>4.068281283293435</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.722222222222222</v>
+        <v>1.634443055441642</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6311065396695431</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.29</v>
+        <v>0.2757128301219922</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.1136111111111111</v>
+        <v>0.1079061704343028</v>
       </c>
       <c r="DF16" t="n">
-        <v>4</v>
+        <v>3.803201349038605</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.611111111111111</v>
+        <v>1.527724522031017</v>
       </c>
     </row>
     <row r="17">
@@ -6052,130 +6052,130 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26.88888888888889</v>
+        <v>25.78982994943309</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>13.45460203774595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8891666666666667</v>
+        <v>0.855121315365861</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1578686030442006</v>
       </c>
       <c r="F17" t="n">
-        <v>10.52777777777778</v>
+        <v>10.07919545445803</v>
       </c>
       <c r="G17" t="n">
-        <v>4.972222222222222</v>
+        <v>4.741616795747998</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8179916345661989</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2763888888888889</v>
+        <v>0.2650046324566623</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1283333333333333</v>
+        <v>0.122469103127417</v>
       </c>
       <c r="K17" t="n">
-        <v>4.333333333333333</v>
+        <v>4.158949838984168</v>
       </c>
       <c r="L17" t="n">
-        <v>2.111111111111111</v>
+        <v>2.015675123209182</v>
       </c>
       <c r="M17" t="n">
-        <v>51.19444444444444</v>
+        <v>49.2155128696995</v>
       </c>
       <c r="N17" t="n">
-        <v>9.638888888888889</v>
+        <v>9.267287672539613</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6863888888888889</v>
+        <v>0.659902394716366</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07912554863869964</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.16666666666667</v>
+        <v>16.49242776077661</v>
       </c>
       <c r="R17" t="n">
-        <v>12.30555555555556</v>
+        <v>11.83459540852346</v>
       </c>
       <c r="S17" t="n">
-        <v>1.333333333333333</v>
+        <v>1.287597894533972</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1902777777777778</v>
+        <v>0.1830293672154067</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1291666666666667</v>
+        <v>0.1245738668802572</v>
       </c>
       <c r="V17" t="n">
-        <v>2.388888888888889</v>
+        <v>2.29448721382314</v>
       </c>
       <c r="W17" t="n">
-        <v>1.611111111111111</v>
+        <v>1.548599893439822</v>
       </c>
       <c r="X17" t="n">
-        <v>35.69444444444444</v>
+        <v>34.29358675423656</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.583333333333333</v>
+        <v>6.330860719925475</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4569444444444444</v>
+        <v>0.4391019514201269</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07863204760869763</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.25</v>
+        <v>9.851486721725029</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.305555555555555</v>
+        <v>7.985480870544105</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0.9515656695226744</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0995421086990332</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07194444444444444</v>
+        <v>0.06897504035149776</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.361111111111111</v>
+        <v>1.29637149850569</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.899639210410803</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.41666666666667</v>
+        <v>13.81368025055765</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02593899149201079</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.04944444444444444</v>
+        <v>0.04722662859561707</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.138888888888889</v>
+        <v>5.863153705085414</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.166666666666667</v>
+        <v>4.936477278344888</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.25</v>
+        <v>0.235252879998997</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.01777777777777778</v>
+        <v>0.01685152976725773</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01264533476431461</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6184,31 +6184,31 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>17.27777777777778</v>
+        <v>16.6248529700033</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08186269081855511</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.04472222222222223</v>
+        <v>0.04299420687105434</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.722222222222222</v>
+        <v>5.494498249589522</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>4.799574948997763</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1573264767083714</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.01222222222222222</v>
+        <v>0.01161363356575209</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.009444444444444445</v>
+        <v>0.009018384574282353</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
@@ -6217,97 +6217,97 @@
         <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>6.083333333333333</v>
+        <v>5.853743429737368</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.888888888888889</v>
+        <v>1.833259401697616</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1128897480288905</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.0557448782447859</v>
       </c>
       <c r="BI17" t="n">
-        <v>2.166666666666667</v>
+        <v>2.095949868178939</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.277777777777778</v>
+        <v>1.230041622285614</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1962791550310486</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04052808232820046</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.02333333333333333</v>
+        <v>0.02248441009999834</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6488118751167822</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3237986092059379</v>
       </c>
       <c r="BP17" t="n">
-        <v>9.805555555555555</v>
+        <v>9.418959559898941</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.444444444444444</v>
+        <v>1.382410482594441</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.1291666666666667</v>
+        <v>0.1240899178824375</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0277524921737972</v>
       </c>
       <c r="BT17" t="n">
-        <v>3.833333333333333</v>
+        <v>3.682024520426308</v>
       </c>
       <c r="BU17" t="n">
-        <v>2.944444444444445</v>
+        <v>2.833473705258861</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2220606782398244</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.04540458646061633</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.03638888888888889</v>
+        <v>0.03500218639726037</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.397489799455035</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2905283889470188</v>
       </c>
       <c r="CA17" t="n">
-        <v>11.52777777777778</v>
+        <v>11.07065962477819</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0277524921737972</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.006111111111111111</v>
+        <v>0.005846836617982205</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02486325211337643</v>
       </c>
       <c r="CE17" t="n">
-        <v>4.444444444444445</v>
+        <v>4.262533791549456</v>
       </c>
       <c r="CF17" t="n">
-        <v>4.333333333333333</v>
+        <v>4.158501182404725</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1047414400970439</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.002091396731522303</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.002091396731522303</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -6316,70 +6316,70 @@
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>9.5</v>
+        <v>9.088305018045006</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6127083808956697</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.08305555555555556</v>
+        <v>0.07953447798702597</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>2.388888888888889</v>
+        <v>2.281617886314772</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1.638888888888889</v>
+        <v>1.557905421049595</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05223178081321157</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.02111111111111111</v>
+        <v>0.02036000170192091</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.01341082694880944</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.25</v>
+        <v>0.2420439920574329</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1633538373409699</v>
       </c>
       <c r="CW17" t="n">
-        <v>20.13888888888889</v>
+        <v>19.30847506154437</v>
       </c>
       <c r="CX17" t="n">
-        <v>19.63888888888889</v>
+        <v>18.82731833388025</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.591944444444445</v>
+        <v>1.532661270686454</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08055146532605929</v>
       </c>
       <c r="DA17" t="n">
-        <v>5.055555555555555</v>
+        <v>4.852951694102952</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.583333333333333</v>
+        <v>1.529317846716872</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5398605600727598</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.4302777777777778</v>
+        <v>0.4150139949378533</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1051955930689172</v>
       </c>
       <c r="DF17" t="n">
-        <v>4.888888888888889</v>
+        <v>4.687676856828275</v>
       </c>
       <c r="DG17" t="n">
-        <v>1.444444444444444</v>
+        <v>1.396317731879581</v>
       </c>
     </row>
     <row r="18">
@@ -6389,130 +6389,130 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31.82857142857143</v>
+        <v>30.4236812209336</v>
       </c>
       <c r="C18" t="n">
-        <v>15.14285714285714</v>
+        <v>14.50037307492046</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8702857142857143</v>
+        <v>0.8328383669282459</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05515988039423846</v>
       </c>
       <c r="F18" t="n">
-        <v>9.857142857142858</v>
+        <v>9.441436187019002</v>
       </c>
       <c r="G18" t="n">
-        <v>5.114285714285714</v>
+        <v>4.91462500705607</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.5666962393140285</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2277142857142857</v>
+        <v>0.2181169792845347</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1017142857142857</v>
+        <v>0.09773370248912137</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.643522087985187</v>
       </c>
       <c r="L18" t="n">
-        <v>1.6</v>
+        <v>1.533438025695736</v>
       </c>
       <c r="M18" t="n">
-        <v>45.17142857142857</v>
+        <v>43.26737067931768</v>
       </c>
       <c r="N18" t="n">
-        <v>8.028571428571428</v>
+        <v>7.705478153359236</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5602857142857143</v>
+        <v>0.5369001728653701</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0268223155705032</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.68571428571429</v>
+        <v>12.15034454298236</v>
       </c>
       <c r="R18" t="n">
-        <v>8.828571428571429</v>
+        <v>8.443269275326909</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8</v>
+        <v>0.7669741199014057</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1368571428571429</v>
+        <v>0.1311880565563185</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.0874668208769183</v>
       </c>
       <c r="V18" t="n">
-        <v>1.742857142857143</v>
+        <v>1.666183432581462</v>
       </c>
       <c r="W18" t="n">
-        <v>1.085714285714286</v>
+        <v>1.037496672202047</v>
       </c>
       <c r="X18" t="n">
-        <v>33.05714285714286</v>
+        <v>31.6362995300873</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.428571428571429</v>
+        <v>5.22135476056332</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3825714285714286</v>
+        <v>0.366958544142556</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08024916611539545</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.68571428571429</v>
+        <v>10.21414621792974</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.542857142857143</v>
+        <v>8.151753980787104</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.057142857142857</v>
+        <v>1.008896922472565</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.09714285714285714</v>
+        <v>0.0928431748049118</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.06880095888763857</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.342857142857143</v>
+        <v>1.293906109280648</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.909580229043386</v>
       </c>
       <c r="AI18" t="n">
-        <v>14.82857142857143</v>
+        <v>14.14634806062387</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.04914285714285714</v>
+        <v>0.04696559592675573</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.628571428571429</v>
+        <v>6.328440403892568</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.514285714285714</v>
+        <v>5.270632224280769</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2453767885129124</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.02171428571428571</v>
+        <v>0.02071955374038765</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.01657142857142857</v>
+        <v>0.01582240645456051</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6521,31 +6521,31 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>16.28571428571428</v>
+        <v>15.54909276607448</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1078665092577405</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.04942857142857143</v>
+        <v>0.0474889119209905</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.685714285714286</v>
+        <v>4.50205533091067</v>
       </c>
       <c r="AY18" t="n">
-        <v>4.142857142857143</v>
+        <v>3.990894260232601</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2</v>
+        <v>0.1926126559072417</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.01098770121933435</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.008857142857142857</v>
+        <v>0.008554142154091433</v>
       </c>
       <c r="BC18" t="n">
         <v>0</v>
@@ -6554,169 +6554,169 @@
         <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>3.8</v>
+        <v>3.657636474819279</v>
       </c>
       <c r="BF18" t="n">
-        <v>1</v>
+        <v>0.971291462807823</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.066</v>
+        <v>0.0635674598255196</v>
       </c>
       <c r="BH18" t="n">
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>1.457142857142857</v>
+        <v>1.401969939191726</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9319356860038377</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1341481263444231</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.02314285714285715</v>
+        <v>0.02223536820858575</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.01542857142857143</v>
+        <v>0.0147345375173749</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3358991638436179</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.2</v>
+        <v>0.193985441803866</v>
       </c>
       <c r="BP18" t="n">
-        <v>8.542857142857143</v>
+        <v>8.198092924402991</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.057142857142857</v>
+        <v>1.009307542842328</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.09885714285714285</v>
+        <v>0.09468986859177282</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02680833381737269</v>
       </c>
       <c r="BT18" t="n">
-        <v>3.885714285714286</v>
+        <v>3.718531629211805</v>
       </c>
       <c r="BU18" t="n">
-        <v>3.057142857142857</v>
+        <v>2.927190493280395</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4057756163664692</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.03914285714285715</v>
+        <v>0.03740463964174442</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.03142857142857143</v>
+        <v>0.03002698995961253</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3294741445883468</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.3025151626793214</v>
       </c>
       <c r="CA18" t="n">
-        <v>11.85714285714286</v>
+        <v>11.291609298715</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.006857142857142858</v>
+        <v>0.006482152297609733</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02664692820133235</v>
       </c>
       <c r="CE18" t="n">
-        <v>4.285714285714286</v>
+        <v>4.082540114273592</v>
       </c>
       <c r="CF18" t="n">
-        <v>4.085714285714285</v>
+        <v>3.895457679881182</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1622948402743459</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.001346814448229995</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.001142857142857143</v>
+        <v>0.001070444536315228</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
       <c r="CL18" t="n">
-        <v>10.25714285714286</v>
+        <v>9.777179064915709</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6025975906917375</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.08914285714285715</v>
+        <v>0.08492421096505991</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0268223155705032</v>
       </c>
       <c r="CP18" t="n">
-        <v>2.2</v>
+        <v>2.095508642907151</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.514285714285714</v>
+        <v>1.438044115417304</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1094771022873166</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.022</v>
+        <v>0.02099507360184781</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.01285714285714286</v>
+        <v>0.01224897199912339</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1638883070188412</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05529330313009203</v>
       </c>
       <c r="CW18" t="n">
-        <v>21.2</v>
+        <v>20.24362362171427</v>
       </c>
       <c r="CX18" t="n">
-        <v>19.8</v>
+        <v>18.91304565540959</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.379714285714286</v>
+        <v>1.317066707628169</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02658219436014443</v>
       </c>
       <c r="DA18" t="n">
-        <v>4.571428571428571</v>
+        <v>4.361383840345857</v>
       </c>
       <c r="DB18" t="n">
-        <v>1.542857142857143</v>
+        <v>1.481095577632843</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6524768432965692</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.292</v>
+        <v>0.2781510329503527</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.1028571428571429</v>
+        <v>0.09838902295547883</v>
       </c>
       <c r="DF18" t="n">
-        <v>4.142857142857143</v>
+        <v>3.951415779714379</v>
       </c>
       <c r="DG18" t="n">
-        <v>1.314285714285714</v>
+        <v>1.260343698007384</v>
       </c>
     </row>
     <row r="19">
@@ -6726,130 +6726,130 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.05882352941176</v>
+        <v>21.76041214773073</v>
       </c>
       <c r="C19" t="n">
-        <v>13.17647058823529</v>
+        <v>12.40304270226845</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7802941176470588</v>
+        <v>0.7351680144280488</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1089933673481538</v>
       </c>
       <c r="F19" t="n">
-        <v>10.17647058823529</v>
+        <v>9.613903258021939</v>
       </c>
       <c r="G19" t="n">
-        <v>4.441176470588236</v>
+        <v>4.186054984113527</v>
       </c>
       <c r="H19" t="n">
-        <v>1.029411764705882</v>
+        <v>0.964132338207852</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2926470588235294</v>
+        <v>0.2758497964136574</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1364705882352941</v>
+        <v>0.128394120660444</v>
       </c>
       <c r="K19" t="n">
-        <v>5.088235294117647</v>
+        <v>4.791681110212303</v>
       </c>
       <c r="L19" t="n">
-        <v>2.323529411764706</v>
+        <v>2.183069355828844</v>
       </c>
       <c r="M19" t="n">
-        <v>48.3235294117647</v>
+        <v>45.68136828633924</v>
       </c>
       <c r="N19" t="n">
-        <v>10.23529411764706</v>
+        <v>9.648290404200337</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6735294117647059</v>
+        <v>0.6356651459045307</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1404947966616306</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.70588235294118</v>
+        <v>14.86730439909853</v>
       </c>
       <c r="R19" t="n">
-        <v>10.91176470588235</v>
+        <v>10.32236391173666</v>
       </c>
       <c r="S19" t="n">
-        <v>1.147058823529412</v>
+        <v>1.089978963245342</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1923529411764706</v>
+        <v>0.1817859954058351</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1279411764705882</v>
+        <v>0.1206085166386377</v>
       </c>
       <c r="V19" t="n">
-        <v>2.823529411764706</v>
+        <v>2.662922879735761</v>
       </c>
       <c r="W19" t="n">
-        <v>1.911764705882353</v>
+        <v>1.797502432706349</v>
       </c>
       <c r="X19" t="n">
-        <v>31.11764705882353</v>
+        <v>29.44516610784192</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.323529411764706</v>
+        <v>6.906562871909323</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.4735294117647059</v>
+        <v>0.4461928669019342</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02857052157074378</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.205882352941177</v>
+        <v>6.828765534454341</v>
       </c>
       <c r="AC19" t="n">
-        <v>5.647058823529412</v>
+        <v>5.34711548424792</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4963446359878012</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08324716949710299</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.05529411764705883</v>
+        <v>0.05206814197136835</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.264705882352941</v>
+        <v>1.197635706332252</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6140439781083161</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.764705882352942</v>
+        <v>9.248150955689313</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1085005051905936</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.03294117647058824</v>
+        <v>0.03113238298678897</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.617647058823529</v>
+        <v>4.384703901772925</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.794117647058823</v>
+        <v>3.60198943321566</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2491913911424775</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.01404508324867666</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.01147058823529412</v>
+        <v>0.01094405021744646</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -6858,31 +6858,31 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>11.02941176470588</v>
+        <v>10.4752065140801</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.0276741417741714</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.029411764705882</v>
+        <v>3.825754146118223</v>
       </c>
       <c r="AY19" t="n">
-        <v>3.5</v>
+        <v>3.322244035956066</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02772660336785809</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.009705882352941177</v>
+        <v>0.009079513538916928</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.007647058823529412</v>
+        <v>0.007139292137276339</v>
       </c>
       <c r="BC19" t="n">
         <v>0</v>
@@ -6891,97 +6891,97 @@
         <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.294117647058823</v>
+        <v>3.109121903701686</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.294117647058824</v>
+        <v>1.216246576673707</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.06470588235294118</v>
+        <v>0.06093234541847219</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02808014197319782</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.205882352941176</v>
+        <v>1.14322384212511</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7810926104069716</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2500393633235942</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.02091609419002807</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.01441176470588235</v>
+        <v>0.01363316731950158</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.3594794193096171</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1924001557550624</v>
       </c>
       <c r="BP19" t="n">
-        <v>4.941176470588236</v>
+        <v>4.660160919879701</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.029411764705882</v>
+        <v>0.9664909524881308</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.07294117647058823</v>
+        <v>0.0684604833043142</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>1.794117647058824</v>
+        <v>1.701415062672218</v>
       </c>
       <c r="BU19" t="n">
-        <v>1.294117647058824</v>
+        <v>1.230549481428742</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02751620398679222</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.02441176470588235</v>
+        <v>0.02308312542278387</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.01676470588235294</v>
+        <v>0.01590620677431664</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3355909151390197</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2252239244551562</v>
       </c>
       <c r="CA19" t="n">
-        <v>6.941176470588236</v>
+        <v>6.600584215208052</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.0866867928776841</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.004705882352941177</v>
+        <v>0.004492990328141932</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>2.441176470588236</v>
+        <v>2.319687304100812</v>
       </c>
       <c r="CF19" t="n">
-        <v>2.294117647058823</v>
+        <v>2.184132618898196</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02727520683698518</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.0008823529411764705</v>
+        <v>0.0008231354643188821</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.0005882352941176471</v>
+        <v>0.0005510002917549455</v>
       </c>
       <c r="CJ19" t="n">
         <v>0</v>
@@ -6990,70 +6990,70 @@
         <v>0</v>
       </c>
       <c r="CL19" t="n">
-        <v>5.382352941176471</v>
+        <v>5.08170545637613</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3901325176928329</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.04970588235294118</v>
+        <v>0.04676966382880717</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02808014197319782</v>
       </c>
       <c r="CP19" t="n">
-        <v>1.617647058823529</v>
+        <v>1.52733525485109</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1.235294117647059</v>
+        <v>1.167168829588944</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1682448647969189</v>
       </c>
       <c r="CS19" t="n">
-        <v>0.01294117647058824</v>
+        <v>0.01215817256278454</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.009117647058823529</v>
+        <v>0.008555325546185417</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08105440912690101</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.0276109191981789</v>
       </c>
       <c r="CW19" t="n">
-        <v>17.23529411764706</v>
+        <v>16.26021965170548</v>
       </c>
       <c r="CX19" t="n">
-        <v>16.52941176470588</v>
+        <v>15.58948575779678</v>
       </c>
       <c r="CY19" t="n">
-        <v>1.324411764705882</v>
+        <v>1.246935976431506</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08158770890230688</v>
       </c>
       <c r="DA19" t="n">
-        <v>3.764705882352941</v>
+        <v>3.559611891308618</v>
       </c>
       <c r="DB19" t="n">
-        <v>1.382352941176471</v>
+        <v>1.301789380946269</v>
       </c>
       <c r="DC19" t="n">
-        <v>0.5</v>
+        <v>0.4721063378338871</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.2964705882352941</v>
+        <v>0.2793914298262301</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.1108823529411765</v>
+        <v>0.1042315876774246</v>
       </c>
       <c r="DF19" t="n">
-        <v>3.617647058823529</v>
+        <v>3.418263936987257</v>
       </c>
       <c r="DG19" t="n">
-        <v>1.323529411764706</v>
+        <v>1.24636149641369</v>
       </c>
     </row>
     <row r="20">
@@ -7063,130 +7063,130 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23.54054054054054</v>
+        <v>22.49342362040818</v>
       </c>
       <c r="C20" t="n">
-        <v>12.75675675675676</v>
+        <v>12.23849618801334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7421621621621621</v>
+        <v>0.7139602891846414</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07388897515997343</v>
       </c>
       <c r="F20" t="n">
-        <v>9.216216216216216</v>
+        <v>8.794144972965162</v>
       </c>
       <c r="G20" t="n">
-        <v>4.054054054054054</v>
+        <v>3.860618045914542</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4768505595821581</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2348648648648649</v>
+        <v>0.2245208263014905</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08756756756756758</v>
+        <v>0.08376171231087089</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.842380232356189</v>
       </c>
       <c r="L20" t="n">
-        <v>1.621621621621622</v>
+        <v>1.562836507290841</v>
       </c>
       <c r="M20" t="n">
-        <v>49.27027027027027</v>
+        <v>47.18895214554254</v>
       </c>
       <c r="N20" t="n">
-        <v>8.216216216216216</v>
+        <v>7.862400627515959</v>
       </c>
       <c r="O20" t="n">
-        <v>0.591891891891892</v>
+        <v>0.5658419293014846</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2674822258743207</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.67567567567568</v>
+        <v>16.93176295212255</v>
       </c>
       <c r="R20" t="n">
-        <v>12.32432432432432</v>
+        <v>11.81051729783921</v>
       </c>
       <c r="S20" t="n">
-        <v>1.297297297297297</v>
+        <v>1.237644377989989</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1951351351351351</v>
+        <v>0.1865553553740614</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1321621621621621</v>
+        <v>0.1266701263510191</v>
       </c>
       <c r="V20" t="n">
-        <v>2.45945945945946</v>
+        <v>2.352886321185481</v>
       </c>
       <c r="W20" t="n">
-        <v>1.567567567567568</v>
+        <v>1.508350918771859</v>
       </c>
       <c r="X20" t="n">
-        <v>34.54054054054054</v>
+        <v>33.14656679034219</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.945945945945946</v>
+        <v>4.775340277403402</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3721621621621621</v>
+        <v>0.3580676492389356</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02419127232652842</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.7027027027027</v>
+        <v>10.26424099280116</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.243243243243244</v>
+        <v>8.860132068764084</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8198295985336572</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.08810810810810811</v>
+        <v>0.08503667258123201</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.07135135135135136</v>
+        <v>0.06873254397362337</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.8205518689086946</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.6310397987106469</v>
       </c>
       <c r="AI20" t="n">
-        <v>13.51351351351351</v>
+        <v>12.9066243496877</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0495555312674297</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.04405405405405406</v>
+        <v>0.04208295051529652</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02526362593664893</v>
       </c>
       <c r="AM20" t="n">
-        <v>5.864864864864865</v>
+        <v>5.575178015880518</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.702702702702703</v>
+        <v>4.466252939006015</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1749816781079425</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.01513513513513514</v>
+        <v>0.01432724410491806</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.009933907814535074</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -7195,130 +7195,130 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>15.51351351351351</v>
+        <v>14.80764246380336</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.08374006606131602</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.04216216216216216</v>
+        <v>0.04010430318789373</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02517602939888873</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.324324324324325</v>
+        <v>5.065023511095756</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.72972972972973</v>
+        <v>4.504790312213514</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07839047771287762</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.01297297297297297</v>
+        <v>0.01228449733083504</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.009993543818984357</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0315253432234173</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0315253432234173</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.567567567567568</v>
+        <v>3.425291724743946</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.907404975609877</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.06324324324324324</v>
+        <v>0.0612337638288739</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02601532013296719</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.405405405405405</v>
+        <v>1.368253261089829</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.7588101604662421</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2143757798938497</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.02621621621621622</v>
+        <v>0.02602022432901743</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.01513513513513514</v>
+        <v>0.01524624008097307</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3195090410539027</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1640243627734954</v>
       </c>
       <c r="BP20" t="n">
-        <v>8.378378378378379</v>
+        <v>8.037150321527434</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.108108108108108</v>
+        <v>1.077172417078357</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.09837837837837839</v>
+        <v>0.09477934868609574</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02863639227275591</v>
       </c>
       <c r="BT20" t="n">
-        <v>4.054054054054054</v>
+        <v>3.895599672889579</v>
       </c>
       <c r="BU20" t="n">
-        <v>3.243243243243243</v>
+        <v>3.100028764043129</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4319356082727598</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.04648648648648648</v>
+        <v>0.04487767723524907</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.03756756756756757</v>
+        <v>0.03617646794510016</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.5389260703748825</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4638093588265599</v>
       </c>
       <c r="CA20" t="n">
-        <v>8.405405405405405</v>
+        <v>8.091913944191047</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0315253432234173</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.009189189189189189</v>
+        <v>0.00905787475967015</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>3.027027027027027</v>
+        <v>2.909578521593117</v>
       </c>
       <c r="CF20" t="n">
-        <v>2.810810810810811</v>
+        <v>2.695506856339228</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05077779208356189</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.002162162162162162</v>
+        <v>0.002053135425021846</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.001891891891891892</v>
+        <v>0.001799492835612833</v>
       </c>
       <c r="CJ20" t="n">
         <v>0</v>
@@ -7327,70 +7327,70 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>8.297297297297296</v>
+        <v>7.890487885080516</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.254864822785082</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.06189189189189189</v>
+        <v>0.05891573720983309</v>
       </c>
       <c r="CO20" t="n">
         <v>0</v>
       </c>
       <c r="CP20" t="n">
-        <v>2.189189189189189</v>
+        <v>2.099543723649289</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.621621621621622</v>
+        <v>1.543781379989257</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02432894682422092</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.01837837837837838</v>
+        <v>0.01770390397999102</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.009729729729729729</v>
+        <v>0.00933311168898023</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05053670806980117</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02473743956506084</v>
       </c>
       <c r="CW20" t="n">
-        <v>15.78378378378378</v>
+        <v>14.95975763350995</v>
       </c>
       <c r="CX20" t="n">
-        <v>15.40540540540541</v>
+        <v>14.60482338517726</v>
       </c>
       <c r="CY20" t="n">
-        <v>1.143783783783784</v>
+        <v>1.08650521061078</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2260445271165528</v>
       </c>
       <c r="DA20" t="n">
-        <v>4.189189189189189</v>
+        <v>3.949986418418888</v>
       </c>
       <c r="DB20" t="n">
-        <v>1.594594594594595</v>
+        <v>1.504283869454657</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.6820632627736171</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.3154054054054054</v>
+        <v>0.2964298450803317</v>
       </c>
       <c r="DE20" t="n">
-        <v>0.1043243243243243</v>
+        <v>0.09805383943379267</v>
       </c>
       <c r="DF20" t="n">
-        <v>4.108108108108108</v>
+        <v>3.874135049859153</v>
       </c>
       <c r="DG20" t="n">
-        <v>1.567567567567568</v>
+        <v>1.478897904057421</v>
       </c>
     </row>
     <row r="21">
@@ -7400,130 +7400,130 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25.63888888888889</v>
+        <v>25.03306631075661</v>
       </c>
       <c r="C21" t="n">
-        <v>14.38888888888889</v>
+        <v>14.01539965126116</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7911111111111111</v>
+        <v>0.772843443408878</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08250179959370044</v>
       </c>
       <c r="F21" t="n">
-        <v>10.41666666666667</v>
+        <v>10.21259175085017</v>
       </c>
       <c r="G21" t="n">
-        <v>4.833333333333333</v>
+        <v>4.709865222205069</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8724892078590268</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2525</v>
+        <v>0.2477526863494328</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1175</v>
+        <v>0.1143907221107739</v>
       </c>
       <c r="K21" t="n">
-        <v>4.638888888888889</v>
+        <v>4.541619260072521</v>
       </c>
       <c r="L21" t="n">
-        <v>2.138888888888889</v>
+        <v>2.078948749382537</v>
       </c>
       <c r="M21" t="n">
-        <v>50.91666666666666</v>
+        <v>49.61914691930555</v>
       </c>
       <c r="N21" t="n">
-        <v>11.41666666666667</v>
+        <v>11.18934452973227</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7283333333333333</v>
+        <v>0.7116201242246176</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.02777777777778</v>
+        <v>15.57112275992688</v>
       </c>
       <c r="R21" t="n">
-        <v>11.88888888888889</v>
+        <v>11.52909906415274</v>
       </c>
       <c r="S21" t="n">
-        <v>1.166666666666667</v>
+        <v>1.134397650839243</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1813888888888889</v>
+        <v>0.1771243194392062</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1238888888888889</v>
+        <v>0.1211490809077736</v>
       </c>
       <c r="V21" t="n">
-        <v>2.388888888888889</v>
+        <v>2.374863061968947</v>
       </c>
       <c r="W21" t="n">
-        <v>1.527777777777778</v>
+        <v>1.534725423224208</v>
       </c>
       <c r="X21" t="n">
-        <v>37.83333333333334</v>
+        <v>37.27689372138704</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.416666666666667</v>
+        <v>7.320194678896083</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.4858333333333333</v>
+        <v>0.4791344521308816</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02697017099088408</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.88888888888889</v>
+        <v>10.67385560667057</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.472222222222221</v>
+        <v>8.280820713597954</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7119617805930389</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.1188888888888889</v>
+        <v>0.116903695568002</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07472222222222222</v>
+        <v>0.07359096808130271</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.861111111111111</v>
+        <v>1.838834045842986</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.111111111111111</v>
+        <v>1.121635327526609</v>
       </c>
       <c r="AI21" t="n">
-        <v>12.55555555555556</v>
+        <v>12.35666453322327</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.03446615136651623</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02651675859142979</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.527777777777778</v>
+        <v>5.392421771162707</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.833333333333333</v>
+        <v>4.70653807989093</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2105435462500481</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.01416666666666667</v>
+        <v>0.01401668602358052</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.01277777777777778</v>
+        <v>0.01267172358002836</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -7532,130 +7532,130 @@
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>19.77777777777778</v>
+        <v>19.52907698120855</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.107981051387761</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.05916666666666667</v>
+        <v>0.05800373596448294</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.03007229379428145</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.694444444444445</v>
+        <v>6.539034980169451</v>
       </c>
       <c r="AY21" t="n">
-        <v>6.166666666666667</v>
+        <v>6.020054739771425</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3860026225382219</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01622356445705132</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.01527777777777778</v>
+        <v>0.01486853746805863</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02697017099088408</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02697017099088408</v>
       </c>
       <c r="BE21" t="n">
-        <v>3.944444444444445</v>
+        <v>3.879882832973668</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.666666666666667</v>
+        <v>1.618779706755254</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.0828730255299571</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>1.583333333333333</v>
+        <v>1.555254986103858</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8633324455840437</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2144333613954242</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.03138888888888889</v>
+        <v>0.03071211748212033</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.01833333333333333</v>
+        <v>0.01822085076441187</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6460294751662636</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4091822496236099</v>
       </c>
       <c r="BP21" t="n">
-        <v>10.19444444444444</v>
+        <v>9.915928038489138</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.694444444444444</v>
+        <v>1.628693323132177</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.1311111111111111</v>
+        <v>0.1269416063882325</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>4.861111111111111</v>
+        <v>4.75806602673171</v>
       </c>
       <c r="BU21" t="n">
-        <v>3.638888888888889</v>
+        <v>3.537701092153791</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4790859976850141</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.06194444444444444</v>
+        <v>0.06016133662752396</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.04666666666666666</v>
+        <v>0.04506242084794131</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.75</v>
+        <v>0.7217825030951323</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5000188958990031</v>
       </c>
       <c r="CA21" t="n">
-        <v>8.916666666666666</v>
+        <v>8.801093332699004</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02610121005209801</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.009303100693398882</v>
       </c>
       <c r="CD21" t="n">
         <v>0</v>
       </c>
       <c r="CE21" t="n">
-        <v>3.444444444444445</v>
+        <v>3.371816060900791</v>
       </c>
       <c r="CF21" t="n">
-        <v>3.388888888888889</v>
+        <v>3.317866801768657</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05395029702393889</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001180587787302207</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001180587787302207</v>
       </c>
       <c r="CJ21" t="n">
         <v>0</v>
@@ -7664,70 +7664,70 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>10.22222222222222</v>
+        <v>9.958317262422185</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4326907842287684</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.06888888888888889</v>
+        <v>0.06680838881886733</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="CP21" t="n">
-        <v>3.25</v>
+        <v>3.162172064420064</v>
       </c>
       <c r="CQ21" t="n">
-        <v>2.777777777777778</v>
+        <v>2.698360109363927</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1931075901166127</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.0225</v>
+        <v>0.02176543709574666</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.01888888888888889</v>
+        <v>0.01826816148141219</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1835614963262605</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1586158777747029</v>
       </c>
       <c r="CW21" t="n">
-        <v>22.5</v>
+        <v>21.93919804647087</v>
       </c>
       <c r="CX21" t="n">
-        <v>22</v>
+        <v>21.47649619924389</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.718333333333333</v>
+        <v>1.68024950942534</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08296034281567659</v>
       </c>
       <c r="DA21" t="n">
-        <v>5.194444444444445</v>
+        <v>5.084613543732289</v>
       </c>
       <c r="DB21" t="n">
-        <v>1.666666666666667</v>
+        <v>1.643786241563232</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8312548588655493</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.4263888888888889</v>
+        <v>0.416303421717696</v>
       </c>
       <c r="DE21" t="n">
-        <v>0.1372222222222222</v>
+        <v>0.1346362134389208</v>
       </c>
       <c r="DF21" t="n">
-        <v>5.166666666666667</v>
+        <v>5.058297754258605</v>
       </c>
       <c r="DG21" t="n">
-        <v>1.638888888888889</v>
+        <v>1.617470452089548</v>
       </c>
     </row>
   </sheetData>
